--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.289</v>
+        <v>-0.111</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.133</v>
+        <v>27.797</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.433</v>
+        <v>-0.022</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.153</v>
+        <v>28.408</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.465</v>
+        <v>-0.019</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.781</v>
+        <v>27.304</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.650873664575268</v>
+        <v>29.23691455845947</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.50465524909958</v>
+        <v>29.23691458157947</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>19.3777135592987</v>
+        <v>29.23691458907035</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.27741615873488</v>
+        <v>29.23691456327379</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.37784629529859</v>
+        <v>29.23691458883391</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.65922764877286</v>
+        <v>29.23691459711539</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.955916918165503</v>
+        <v>29.2369145704292</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>19.40902730690914</v>
+        <v>29.23691459279915</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.15342183489015</v>
+        <v>29.23691460004702</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.88730872753368</v>
+        <v>29.23691458853236</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>27.40760079342679</v>
+        <v>29.23691461354283</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.84724568991909</v>
+        <v>29.23691462138533</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>8.742547988502885</v>
+        <v>29.23691458412047</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.80988836713934</v>
+        <v>29.23691461930383</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>32.71049815079645</v>
+        <v>29.23691463070324</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.418484811258757</v>
+        <v>29.23691459625401</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>18.3325272567636</v>
+        <v>29.23691462087566</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22.52411755556104</v>
+        <v>29.23691462884418</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.494107831453473</v>
+        <v>29.2369146023257</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>16.76672756405583</v>
+        <v>29.23691462954595</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.40013805175611</v>
+        <v>29.23691463835548</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>9.869260932445103</v>
+        <v>29.23691461072198</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.3475077301411</v>
+        <v>29.23691463454486</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7.649430987251819</v>
+        <v>29.23691458036734</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>19.77795278784166</v>
+        <v>29.23691460395445</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>23.68758782933092</v>
+        <v>29.2369146113596</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>5.887918788409074</v>
+        <v>29.23691458692045</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>19.29198219923824</v>
+        <v>29.23691461299698</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>23.61378792583964</v>
+        <v>29.23691462118368</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>12.71394043458078</v>
+        <v>29.23691459445218</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>24.4325652117435</v>
+        <v>29.2369146172741</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.21230649514835</v>
+        <v>29.23691462443902</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>20.85634108592041</v>
+        <v>29.23691461272023</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>32.64308104308628</v>
+        <v>29.23691463813736</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>37.13340310585187</v>
+        <v>29.23691464590257</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>13.4947483770733</v>
+        <v>29.2369146074523</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>31.98072017945343</v>
+        <v>29.23691464334649</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>37.93707189966689</v>
+        <v>29.23691465461545</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>9.861940630276587</v>
+        <v>29.23691461992089</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>23.06745267598009</v>
+        <v>29.23691464503653</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>27.2996798972448</v>
+        <v>29.23691465291553</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>7.58380469792742</v>
+        <v>29.2369146278474</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.1785516238474</v>
+        <v>29.23691465561378</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.85687353181163</v>
+        <v>29.23691466432434</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>27.88286360327126</v>
+        <v>29.23691466094816</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>9.498851702255388</v>
+        <v>29.23691458480597</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>21.59161380968461</v>
+        <v>29.23691460829657</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.46839186394351</v>
+        <v>29.23691461564026</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.923428576147735</v>
+        <v>29.23691459169113</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.28796362892428</v>
+        <v>29.23691461766096</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>25.57344628597475</v>
+        <v>29.23691462577972</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>14.74476481998328</v>
+        <v>29.23691459922234</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.428846756927</v>
+        <v>29.23691462195088</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>30.17681906103482</v>
+        <v>29.23691462905634</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>22.86884965527755</v>
+        <v>29.23691461736058</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>34.62217522743342</v>
+        <v>29.23691464265361</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>39.07659605364769</v>
+        <v>29.23691465035724</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>15.49371556155422</v>
+        <v>29.23691461196742</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.92514292122048</v>
+        <v>29.23691464771475</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>39.83144032975433</v>
+        <v>29.23691465889018</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>11.83292037239174</v>
+        <v>29.23691462435077</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>24.99824026010129</v>
+        <v>29.23691464936227</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.19566592844064</v>
+        <v>29.23691465717656</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>9.75359346034012</v>
+        <v>29.23691463261873</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.30391031900355</v>
+        <v>29.23691466026997</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.943760360313</v>
+        <v>29.23691466890899</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>17.28719995236639</v>
+        <v>29.23691464141267</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>30.00830339193322</v>
+        <v>29.23691466561275</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>11.59637990693227</v>
+        <v>29.23691456380145</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>23.78275277664721</v>
+        <v>29.23691458721138</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>27.6734077525136</v>
+        <v>29.23691459474944</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>9.725013575403906</v>
+        <v>29.23691456921821</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.1929682342207</v>
+        <v>29.23691459509887</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27.49379326191843</v>
+        <v>29.2369146034325</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>16.70257500710286</v>
+        <v>29.23691457651263</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.47702278496056</v>
+        <v>29.23691459916312</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>32.23841468997554</v>
+        <v>29.23691460645663</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>24.85088650828589</v>
+        <v>29.23691459476247</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.70369313078334</v>
+        <v>29.23691462005739</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>41.16530563066821</v>
+        <v>29.23691462795326</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>17.29936378150473</v>
+        <v>29.2369145900749</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>35.87353435539809</v>
+        <v>29.23691462569948</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>41.80096096807676</v>
+        <v>29.23691463717068</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>13.85266039175196</v>
+        <v>29.23691460231328</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>27.12961587722996</v>
+        <v>29.23691462724181</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>31.34408723397929</v>
+        <v>29.23691463526168</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>11.44767165935038</v>
+        <v>29.23691460902723</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.12133059089617</v>
+        <v>29.23691463658676</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>30.78002707327504</v>
+        <v>29.23691464545306</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>19.14831973634867</v>
+        <v>29.23691461757772</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>31.97721298501859</v>
+        <v>29.23691464169754</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.39963352551424</v>
+        <v>29.23691464225488</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>18.98373844696538</v>
+        <v>29.23691462950029</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>31.65829872309843</v>
+        <v>29.23691465624407</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.49908938451981</v>
+        <v>29.23691466456672</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>11.75350503429284</v>
+        <v>29.23691462364314</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>31.43620270359763</v>
+        <v>29.23691466111167</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>37.82242089436125</v>
+        <v>29.23691467323794</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>13.4929996186131</v>
+        <v>29.23691464317035</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.4962170819339</v>
+        <v>29.2369146669982</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.77770213774786</v>
+        <v>29.2369146746305</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>11.51442479825783</v>
+        <v>29.23691465099997</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>25.88585091023131</v>
+        <v>29.23691467734265</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>30.61865680699849</v>
+        <v>29.23691468578047</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>19.19416979198753</v>
+        <v>29.23691465977021</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.75909214255483</v>
+        <v>29.23691468282506</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>35.89807224016732</v>
+        <v>29.23691469020975</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.86026419214169</v>
+        <v>29.23691467744248</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>41.69530507566606</v>
+        <v>29.23691470329057</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>46.64462278795503</v>
+        <v>29.2369147112065</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>21.72455052309845</v>
+        <v>29.23691467029678</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>41.5427974781049</v>
+        <v>29.23691470655732</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>48.06609505463248</v>
+        <v>29.23691471817194</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>31.97425848704987</v>
+        <v>29.23691466857155</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>24.4619390483227</v>
+        <v>29.2369146555696</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>37.41841113082232</v>
+        <v>29.23691468273957</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>42.31513922731069</v>
+        <v>29.23691469098057</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.0042010398674</v>
+        <v>29.23691464879558</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>37.13102299803672</v>
+        <v>29.23691468701585</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>43.57917441192481</v>
+        <v>29.23691469900588</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>18.27897502579103</v>
+        <v>29.23691466647876</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>31.56650788447778</v>
+        <v>29.23691469078367</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>35.88739803993671</v>
+        <v>29.23691469832469</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>16.96030727514366</v>
+        <v>29.23691467611713</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>31.64595889559741</v>
+        <v>29.23691470298722</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.42231673066853</v>
+        <v>29.23691471132414</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>24.8104308784718</v>
+        <v>29.23691468527892</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>37.65012896430064</v>
+        <v>29.23691470879535</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>41.8271911992823</v>
+        <v>29.23691471609174</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>34.69722850781414</v>
+        <v>29.23691470307003</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>47.8072668360014</v>
+        <v>29.23691472932925</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>52.81044387566656</v>
+        <v>29.23691473716064</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>27.32885477718913</v>
+        <v>29.23691469503142</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>47.58033246050844</v>
+        <v>29.23691473201794</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>54.16368387096578</v>
+        <v>29.23691474349366</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>34.06605074385389</v>
+        <v>29.23691467317354</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.60277734278303</v>
+        <v>29.23691466019468</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>39.52059623123174</v>
+        <v>29.23691468722959</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>44.37888116208669</v>
+        <v>29.2369146954058</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>19.12918678137063</v>
+        <v>29.23691465329685</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>39.1947108533049</v>
+        <v>29.23691469135863</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>45.58984483338566</v>
+        <v>29.2369147032502</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>20.17397559353137</v>
+        <v>29.236914670514</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>33.41947533413835</v>
+        <v>29.23691469471926</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>37.70459509672472</v>
+        <v>29.23691470219689</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>19.04597915587755</v>
+        <v>29.23691468047099</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>33.68516550957077</v>
+        <v>29.23691470723091</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.42198115698131</v>
+        <v>29.23691471549774</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.88793861424464</v>
+        <v>29.23691468962254</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>39.68702448958919</v>
+        <v>29.23691471304255</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>43.82950395216821</v>
+        <v>29.2369147202776</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.7467230714204</v>
+        <v>29.23691470727794</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>49.81563390506631</v>
+        <v>29.23691473340768</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>54.77885789526144</v>
+        <v>29.23691474117571</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.36373894931221</v>
+        <v>29.23691469912751</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>49.55111794898863</v>
+        <v>29.23691473596239</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>56.07997572261336</v>
+        <v>29.23691474734163</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.0514423230842</v>
+        <v>29.23691464945724</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.51405966036396</v>
+        <v>29.23691463649931</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>41.55379557194135</v>
+        <v>29.23691466354371</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>46.42236212263078</v>
+        <v>29.23691467192393</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>20.86412460298933</v>
+        <v>29.23691463034092</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>41.09984330887334</v>
+        <v>29.23691466827645</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>47.52094158722493</v>
+        <v>29.23691468048087</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>21.66265421205853</v>
+        <v>29.23691464952863</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>35.02930862899007</v>
+        <v>29.23691467365498</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>39.33660628850527</v>
+        <v>29.23691468133458</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>20.20146093310489</v>
+        <v>29.23691465799885</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>34.97451041996018</v>
+        <v>29.23691468467154</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.73584921165336</v>
+        <v>29.23691469316164</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.20523557449058</v>
+        <v>29.23691466692445</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>41.12132040278566</v>
+        <v>29.23691469026811</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.28524184323452</v>
+        <v>29.23691469769857</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.1347743989767</v>
+        <v>29.2369146847258</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.33610507270204</v>
+        <v>29.23691471086575</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>56.31546533512866</v>
+        <v>29.23691471883409</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>30.5982273533826</v>
+        <v>29.23691467727221</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>50.97028653832501</v>
+        <v>29.23691471398702</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>57.5329428057676</v>
+        <v>29.2369147256736</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>7.261332235895708</v>
+        <v>29.23691456707347</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>19.28357981829807</v>
+        <v>29.2369145901079</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>23.00398795088088</v>
+        <v>29.23691459743355</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>5.357526430265114</v>
+        <v>29.23691457225324</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>18.64423550665575</v>
+        <v>29.23691459771877</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.75690494406023</v>
+        <v>29.23691460581757</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>12.09445489915834</v>
+        <v>29.23691457949708</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>23.71057363063214</v>
+        <v>29.23691460178426</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>27.30740946571538</v>
+        <v>29.23691460887225</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>20.01897688304631</v>
+        <v>29.23691459728609</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>31.70542268008445</v>
+        <v>29.23691462211136</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>35.95867438020279</v>
+        <v>29.23691462976979</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>12.74550142201788</v>
+        <v>29.23691459254329</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>31.06949964954785</v>
+        <v>29.23691462759646</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.73753826847751</v>
+        <v>29.23691463874442</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>8.50548794943758</v>
+        <v>29.23691460294265</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>21.55976115444165</v>
+        <v>29.23691462745408</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.57182376224994</v>
+        <v>29.23691463523777</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>5.988280118092813</v>
+        <v>29.23691460925165</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>20.41597304346346</v>
+        <v>29.23691463635006</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>24.85096330626189</v>
+        <v>29.23691464495526</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.42063832950929</v>
+        <v>29.2369146177221</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.03460189741973</v>
+        <v>29.23691464143835</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>11.12239487036108</v>
+        <v>29.23691458824389</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>23.42005951840042</v>
+        <v>29.23691461174018</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>27.17178015199398</v>
+        <v>29.23691461897801</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>9.817719432110326</v>
+        <v>29.23691459511885</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>23.40881104388401</v>
+        <v>29.23691462109497</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>27.55608729966031</v>
+        <v>29.2369146290967</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>16.69848647535971</v>
+        <v>29.23691460271655</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.58077714191306</v>
+        <v>29.23691462545059</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>32.20787132238696</v>
+        <v>29.23691463245363</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>24.83221458203102</v>
+        <v>29.23691462065926</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.78574212518997</v>
+        <v>29.2369146458866</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.0833717839415</v>
+        <v>29.23691465346608</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>17.34594568145674</v>
+        <v>29.2369146150835</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.08960410760611</v>
+        <v>29.23691465083949</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>41.80536645818033</v>
+        <v>29.23691466185383</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>12.79806113247989</v>
+        <v>29.23691462581817</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>26.14407247379737</v>
+        <v>29.23691465081811</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.19112812671663</v>
+        <v>29.23691465850986</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>10.91295338761205</v>
+        <v>29.23691463393573</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.66307139022197</v>
+        <v>29.2369146615742</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.13673591537555</v>
+        <v>29.23691467007775</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>18.5053484841824</v>
+        <v>29.23691464278589</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>31.40126167177995</v>
+        <v>29.2369146669748</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>12.88855355524235</v>
+        <v>29.23691459245575</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>25.14919154831769</v>
+        <v>29.23691461585451</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.8684670781684</v>
+        <v>29.23691462303153</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>11.76173991099544</v>
+        <v>29.23691459964973</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>25.3119027493606</v>
+        <v>29.23691462551803</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.42331142988105</v>
+        <v>29.23691463345253</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>18.63629399676232</v>
+        <v>29.23691460724186</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>30.48281648141967</v>
+        <v>29.23691462988154</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>34.07854013163401</v>
+        <v>29.23691463682573</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.75106153915108</v>
+        <v>29.23691462505686</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>38.66982701620012</v>
+        <v>29.23691465015994</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>42.93207861571261</v>
+        <v>29.23691465767861</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>19.25384194386816</v>
+        <v>29.2369146193637</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>37.9410263116107</v>
+        <v>29.23691465497128</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>43.60736226983995</v>
+        <v>29.23691466589307</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>14.68856814425079</v>
+        <v>29.23691463002801</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>27.9932508130061</v>
+        <v>29.23691465492295</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>32.00604337172022</v>
+        <v>29.23691466255075</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>12.99435027920804</v>
+        <v>29.23691463847457</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.69878200054143</v>
+        <v>29.23691466599695</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>32.13457008319776</v>
+        <v>29.2369146744298</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>20.57969085100782</v>
+        <v>29.23691464731359</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>33.43567483785139</v>
+        <v>29.2369146714009</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>15.0773532288192</v>
+        <v>29.23691457224159</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>27.43563940736622</v>
+        <v>29.2369145955628</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>31.17033039579426</v>
+        <v>29.23691460293322</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>13.66781539831062</v>
+        <v>29.23691457801146</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>27.32586212076165</v>
+        <v>29.23691460379403</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>31.45431374927625</v>
+        <v>29.23691461194233</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>20.70154435565932</v>
+        <v>29.23691458538831</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>32.64233670486809</v>
+        <v>29.23691460795295</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.25296820553414</v>
+        <v>29.23691461508426</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.83971447217403</v>
+        <v>29.23691460332103</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>40.86139682184795</v>
+        <v>29.23691462842693</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>45.13294401762639</v>
+        <v>29.23691463613611</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>21.16288799600843</v>
+        <v>29.23691459830784</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>39.99897264308489</v>
+        <v>29.23691463379741</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>45.68877874000472</v>
+        <v>29.2369146450135</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>16.79808113326324</v>
+        <v>29.23691460880095</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>30.21791564705955</v>
+        <v>29.23691463361587</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>34.24882862809872</v>
+        <v>29.23691464144828</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>14.79091689738369</v>
+        <v>29.23691461573831</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.62257915351101</v>
+        <v>29.23691464317224</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>34.07840168153688</v>
+        <v>29.2369146518313</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>22.54646169721746</v>
+        <v>29.2369146243565</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>35.51363579489733</v>
+        <v>29.23691464836639</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.91318409921962</v>
+        <v>29.23691464896953</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.50904521997779</v>
+        <v>29.23691463618702</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>35.31630541214496</v>
+        <v>29.2369146627096</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>39.93908397776443</v>
+        <v>29.2369146708262</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>15.16761771708327</v>
+        <v>29.2369146300488</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>35.06396814955263</v>
+        <v>29.23691466734961</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>41.17666655470767</v>
+        <v>29.23691467919461</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>16.20069999833249</v>
+        <v>29.23691464785784</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.31599624126713</v>
+        <v>29.23691467156606</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>33.41345953011995</v>
+        <v>29.2369146790248</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>14.55619499265158</v>
+        <v>29.23691465584649</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.05159515086301</v>
+        <v>29.23691468205692</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>33.581000101005</v>
+        <v>29.23691469030287</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.29294020664121</v>
+        <v>29.23691466467441</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>34.96637674286168</v>
+        <v>29.23691468761351</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>38.92745617584251</v>
+        <v>29.23691469483028</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>31.91889014644815</v>
+        <v>29.23691468208818</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>44.85635624575779</v>
+        <v>29.23691470771043</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>49.58198059605334</v>
+        <v>29.23691471543472</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>24.69385549488643</v>
+        <v>29.236914674738</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>44.68288155731252</v>
+        <v>29.2369147108165</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>50.9258096811062</v>
+        <v>29.23691472216701</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>35.31365753750066</v>
+        <v>29.23691467441703</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>27.81633726223782</v>
+        <v>29.23691466138364</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>40.90566123685332</v>
+        <v>29.23691468832768</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>45.57766057554379</v>
+        <v>29.23691469636065</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>20.25177183899838</v>
+        <v>29.23691465435224</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>40.59265283356705</v>
+        <v>29.23691469239645</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>46.75868780147091</v>
+        <v>29.23691470410154</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>20.82584587725088</v>
+        <v>29.23691467037241</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.82672265656175</v>
+        <v>29.23691468012456</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.63644922457406</v>
+        <v>29.23691470685619</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>39.20321509121318</v>
+        <v>29.2369147149985</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>27.72975012398888</v>
+        <v>29.23691468932112</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.67805295968009</v>
+        <v>29.23691471271637</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.67179946589413</v>
+        <v>29.23691471984244</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>37.57493041726251</v>
+        <v>29.23691470684499</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>50.78734983548924</v>
+        <v>29.23691473287368</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>55.56018385622089</v>
+        <v>29.23691474051137</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>30.12229001906386</v>
+        <v>29.23691469862573</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>50.54468182095945</v>
+        <v>29.23691473542167</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>56.83913082992151</v>
+        <v>29.23691474662952</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>37.31494401728339</v>
+        <v>29.23691467878125</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.86665828800371</v>
+        <v>29.23691466577318</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>42.91613574689809</v>
+        <v>29.23691469258229</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>47.5503769901589</v>
+        <v>29.23691470055137</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.28868095288847</v>
+        <v>29.23691465862549</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>42.56653305469652</v>
+        <v>29.2369146965099</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>48.68037135754728</v>
+        <v>29.23691470811767</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.64290236025051</v>
+        <v>29.23691467420368</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>35.99955885826569</v>
+        <v>29.23691469828296</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>40.09565924168844</v>
+        <v>29.2369147055852</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>21.82696546541255</v>
+        <v>29.23691468426278</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.58910803159513</v>
+        <v>29.23691471088341</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.11699992909791</v>
+        <v>29.23691471895635</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.72030647853047</v>
+        <v>29.23691469344426</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>42.62701817995932</v>
+        <v>29.23691471674237</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>46.58676642724313</v>
+        <v>29.23691472380773</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>39.53710355369628</v>
+        <v>29.23691471083449</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>52.70732284666013</v>
+        <v>29.23691473673394</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>57.44101407298941</v>
+        <v>29.23691474430903</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>32.07222429009055</v>
+        <v>29.2369147025104</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>52.42897596275418</v>
+        <v>29.23691473915356</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>58.66985228821655</v>
+        <v>29.23691475026591</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>39.41042688665166</v>
+        <v>29.23691465594471</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>31.88195094541793</v>
+        <v>29.23691464296181</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>45.0561494936512</v>
+        <v>29.23691466978097</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>49.70227954426441</v>
+        <v>29.23691467795225</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>24.12432218089096</v>
+        <v>29.23691463652814</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>44.57773266581573</v>
+        <v>29.23691467429079</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>50.71916981026671</v>
+        <v>29.23691468620992</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.22502311205209</v>
+        <v>29.23691465400056</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.70552062165986</v>
+        <v>29.23691467800391</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>41.82468223997784</v>
+        <v>29.23691468550735</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>23.08742509626561</v>
+        <v>29.23691466261556</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>37.9864023817196</v>
+        <v>29.23691468915226</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.53979357804231</v>
+        <v>29.23691469744763</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>31.14596011878777</v>
+        <v>29.23691467159252</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>44.1722692606954</v>
+        <v>29.23691469481717</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>48.15431408623229</v>
+        <v>29.23691470207719</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>41.03109561853444</v>
+        <v>29.23691468913346</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>54.3356156502668</v>
+        <v>29.23691471504363</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>59.08692899500063</v>
+        <v>29.23691472281753</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>33.40902650500603</v>
+        <v>29.23691468148189</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>53.95455768896177</v>
+        <v>29.23691471800951</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>60.23057502901334</v>
+        <v>29.23691472942803</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>5.116826071746214</v>
+        <v>29.23691456220186</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>16.98175022909883</v>
+        <v>29.23691458492237</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>20.60320283346769</v>
+        <v>29.23691459209719</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>2.903885117397078</v>
+        <v>29.2369145668213</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>16.01678137129683</v>
+        <v>29.23691459193978</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.02005405888686</v>
+        <v>29.23691459987183</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>9.479781717253941</v>
+        <v>29.23691457389805</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>20.94401031458868</v>
+        <v>29.23691459588149</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.4451623547672</v>
+        <v>29.23691460282355</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>17.2104469470303</v>
+        <v>29.23691459148576</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.74710585032938</v>
+        <v>29.23691461593182</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.88304428704193</v>
+        <v>29.23691462343153</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>10.07294472337014</v>
+        <v>29.23691458696095</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.15698742251635</v>
+        <v>29.23691462153639</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>33.67428098184801</v>
+        <v>29.23691463245483</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>5.746886329722312</v>
+        <v>29.23691459612569</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.61122131923441</v>
+        <v>29.23691462028299</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.52126149278272</v>
+        <v>29.23691462791006</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>2.892578606915325</v>
+        <v>29.23691460179391</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>17.11040096330654</v>
+        <v>29.2369146285008</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>21.43261033027996</v>
+        <v>29.23691463693284</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>10.13960209680158</v>
+        <v>29.23691461005991</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.57014344263847</v>
+        <v>29.23691463343351</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>8.83408676070383</v>
+        <v>29.23691458287432</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>20.97032629766117</v>
+        <v>29.23691460605422</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>24.62130084869256</v>
+        <v>29.23691461314084</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>7.204102393694694</v>
+        <v>29.23691458915451</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>20.61684859540349</v>
+        <v>29.23691461478085</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.65274905726504</v>
+        <v>29.23691462261541</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>13.91949333921618</v>
+        <v>29.23691459657298</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.64593132130428</v>
+        <v>29.2369146190009</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.17561096011927</v>
+        <v>29.23691462585762</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>21.85393612481167</v>
+        <v>29.23691461430551</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>33.65347140187267</v>
+        <v>29.2369146391519</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.83151924004942</v>
+        <v>29.23691464657255</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>14.50893404427332</v>
+        <v>29.23691460896384</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>33.00638496542755</v>
+        <v>29.23691464423835</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>38.56867425258591</v>
+        <v>29.23691465502258</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>9.879368052291195</v>
+        <v>29.23691461847134</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>23.03090888823606</v>
+        <v>29.23691464311468</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.97417691980024</v>
+        <v>29.23691465064948</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>7.639790284712628</v>
+        <v>29.23691462591226</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>22.17502913168384</v>
+        <v>29.2369146531565</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.53396179515789</v>
+        <v>29.23691466148653</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>15.04209408539576</v>
+        <v>29.23691463454554</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>27.75020633423443</v>
+        <v>29.23691465838942</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>10.57329924164429</v>
+        <v>29.23691458703997</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.67302020904824</v>
+        <v>29.23691461012344</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.29209588901628</v>
+        <v>29.23691461715034</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>9.119314499765641</v>
+        <v>29.23691459363619</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.49169352527763</v>
+        <v>29.23691461915593</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.49233044408429</v>
+        <v>29.23691462692446</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>15.82870302142726</v>
+        <v>29.23691460104863</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>27.51986314304274</v>
+        <v>29.23691462338325</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.0187007291347</v>
+        <v>29.23691463018219</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>23.74411278753179</v>
+        <v>29.23691461865483</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>35.50918350812883</v>
+        <v>29.2369146433788</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>39.65251078855478</v>
+        <v>29.23691465073973</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>16.38840222936351</v>
+        <v>29.23691461319795</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>34.83015573974765</v>
+        <v>29.23691464832572</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>40.34385043520203</v>
+        <v>29.23691465901907</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>11.74526305722117</v>
+        <v>29.23691462264545</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.85615189745028</v>
+        <v>29.23691464718516</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.76574719454635</v>
+        <v>29.2369146546572</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.694716776460227</v>
+        <v>29.2369146304126</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>24.18501735734343</v>
+        <v>29.23691465754226</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.50672634587407</v>
+        <v>29.23691466580291</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>17.09029279092406</v>
+        <v>29.23691463903458</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.75912921019739</v>
+        <v>29.23691466277819</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>12.74529344713442</v>
+        <v>29.23691456720395</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>24.94311197717318</v>
+        <v>29.23691459020715</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.57704311329218</v>
+        <v>29.23691459742548</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>11.00811591987052</v>
+        <v>29.23691457239826</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>24.48887843735227</v>
+        <v>29.23691459782925</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.50593943679026</v>
+        <v>29.23691460580942</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>17.87495778804856</v>
+        <v>29.23691457960417</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.66082636476117</v>
+        <v>29.23691460186112</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>33.17403082840262</v>
+        <v>29.23691460884528</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>25.81024791657629</v>
+        <v>29.23691459733361</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>37.67834382823315</v>
+        <v>29.23691462205602</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>41.83073095135234</v>
+        <v>29.23691462960504</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>18.2748482306748</v>
+        <v>29.23691459254559</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.86618543586573</v>
+        <v>29.2369146275512</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>42.40249590869564</v>
+        <v>29.23691463853586</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.83726132288191</v>
+        <v>29.23691460179617</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.0632595723411</v>
+        <v>29.23691462625252</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>30.990263758205</v>
+        <v>29.23691463392706</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>11.4736152326593</v>
+        <v>29.23691460807633</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.09110221070025</v>
+        <v>29.23691463511384</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.43205941816283</v>
+        <v>29.23691464359837</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>19.03738048153828</v>
+        <v>29.23691461648598</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>31.81737009855146</v>
+        <v>29.23691464014894</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.35008475605391</v>
+        <v>29.23691464081315</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.00345563708403</v>
+        <v>29.23691462832526</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>31.62459474724005</v>
+        <v>29.23691465442045</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.12415672510195</v>
+        <v>29.23691466237196</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>11.81374987777956</v>
+        <v>29.23691462246756</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>31.42044974198997</v>
+        <v>29.23691465922945</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>37.37772405693836</v>
+        <v>29.23691467083611</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>13.37424971879128</v>
+        <v>29.23691464034009</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.28464736264283</v>
+        <v>29.23691466369384</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>30.28100636920722</v>
+        <v>29.23691467101028</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.37720734004657</v>
+        <v>29.23691464769908</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>25.64620693617893</v>
+        <v>29.23691467351762</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>30.06384698591733</v>
+        <v>29.23691468160625</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>18.93207009594703</v>
+        <v>29.23691465632401</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>31.40761816054816</v>
+        <v>29.23691467892014</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>35.27094486533493</v>
+        <v>29.23691468599922</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.33023792541702</v>
+        <v>29.2369146735848</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>41.06142797897416</v>
+        <v>29.2369146987818</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>45.66576827997579</v>
+        <v>29.23691470635672</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>21.26354015631608</v>
+        <v>29.23691466654695</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>40.94016667549371</v>
+        <v>29.23691470208604</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>47.02907265494545</v>
+        <v>29.23691471321998</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>31.56225518291794</v>
+        <v>29.23691466567979</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>24.12291697590625</v>
+        <v>29.23691465293572</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.02149095283172</v>
+        <v>29.23691467945084</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>41.5680143273652</v>
+        <v>29.23691468731865</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>16.71572660242766</v>
+        <v>29.23691464620135</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>36.76004869385635</v>
+        <v>29.2369146837029</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>42.76796995864825</v>
+        <v>29.23691469516915</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>17.83510214376594</v>
+        <v>29.23691466233787</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>31.02535582294747</v>
+        <v>29.2369146861604</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>35.0538230243536</v>
+        <v>29.23691469338281</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>16.4659206100021</v>
+        <v>29.23691467142617</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.04421916286436</v>
+        <v>29.23691469776297</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>35.49734675681874</v>
+        <v>29.23691470574764</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>24.18237967121403</v>
+        <v>29.23691468040832</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.92839869729482</v>
+        <v>29.23691470345802</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>40.82275414726291</v>
+        <v>29.23691471044613</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>33.79474229632586</v>
+        <v>29.2369146977731</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>46.79621507814156</v>
+        <v>29.2369147233748</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>51.44560412652852</v>
+        <v>29.23691473086307</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>26.50634741225939</v>
+        <v>29.236914689882</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>46.60940584127906</v>
+        <v>29.23691472613446</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>52.74725016899809</v>
+        <v>29.23691473712532</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>33.53862246980435</v>
+        <v>29.23691467000783</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>26.14715494080006</v>
+        <v>29.23691465728816</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>39.00637057681204</v>
+        <v>29.23691468367056</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>43.51586439182511</v>
+        <v>29.23691469147565</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>18.72668152951608</v>
+        <v>29.23691465043926</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>38.70900818635889</v>
+        <v>29.23691468778309</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>44.66563182906741</v>
+        <v>29.23691469915383</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>19.62974395470039</v>
+        <v>29.23691466614145</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>32.77772979498265</v>
+        <v>29.23691468986498</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.77160722766784</v>
+        <v>29.23691469702572</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.44209522507252</v>
+        <v>29.23691467553407</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>32.97366907652996</v>
+        <v>29.23691470176141</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>37.38855992405711</v>
+        <v>29.23691470967791</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.14923461013636</v>
+        <v>29.23691468450119</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>38.85441326147133</v>
+        <v>29.2369147074551</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.71532793553749</v>
+        <v>29.23691471438354</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>35.73347528367061</v>
+        <v>29.23691470173386</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>48.6933754658963</v>
+        <v>29.23691472720853</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>53.30434684207475</v>
+        <v>29.23691473463528</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.43291309558995</v>
+        <v>29.23691469373934</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>48.47151803562573</v>
+        <v>29.23691472984114</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>54.55666733394723</v>
+        <v>29.23691474073815</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>35.61369795565506</v>
+        <v>29.23691464757451</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.13822077485369</v>
+        <v>29.23691463489003</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>41.12161094868539</v>
+        <v>29.23691466127719</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>45.64259270943765</v>
+        <v>29.23691466928195</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>20.5378515001467</v>
+        <v>29.2369146287446</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>40.69567056377686</v>
+        <v>29.23691466596158</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>46.67880796129706</v>
+        <v>29.23691467764048</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>21.20650883857203</v>
+        <v>29.23691464629349</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.47781269728862</v>
+        <v>29.23691466993798</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>38.49382406336867</v>
+        <v>29.23691467729799</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>19.69771549344477</v>
+        <v>29.23691465426285</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>34.36554891797506</v>
+        <v>29.23691468040282</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.8049142444473</v>
+        <v>29.23691468853961</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>27.5682426522844</v>
+        <v>29.23691466303303</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>40.39251729189087</v>
+        <v>29.23691468591047</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>44.27483257892079</v>
+        <v>29.23691469303171</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>37.21593400877455</v>
+        <v>29.23691468042015</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>50.30900335274504</v>
+        <v>29.23691470590053</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>54.93700560792457</v>
+        <v>29.23691471352379</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.75760737073901</v>
+        <v>29.23691467308871</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>49.9841942906863</v>
+        <v>29.23691470907023</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>56.10307065205107</v>
+        <v>29.23691472027048</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>4.254687423924274</v>
+        <v>29.23691456150705</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>16.0059807742507</v>
+        <v>29.23691458406425</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>19.58755823800803</v>
+        <v>29.23691459121248</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>2.06790235257856</v>
+        <v>29.23691456616092</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>15.05520043470877</v>
+        <v>29.23691459109885</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>19.01439260266995</v>
+        <v>29.23691459900151</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>8.612491275546994</v>
+        <v>29.23691457317317</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>19.96690716619414</v>
+        <v>29.23691459499859</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.42952060280696</v>
+        <v>29.23691460191493</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>16.3845537232275</v>
+        <v>29.23691459077782</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.78676986168541</v>
+        <v>29.23691461503303</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>31.875735187875</v>
+        <v>29.23691462250673</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>9.386971853805797</v>
+        <v>29.23691458638242</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>27.29781695878082</v>
+        <v>29.23691462070933</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>32.75431297221873</v>
+        <v>29.23691463158731</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>4.947901909173655</v>
+        <v>29.23691459535042</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>17.69465026393441</v>
+        <v>29.23691461934438</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>21.56011405484194</v>
+        <v>29.23691462694064</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>2.124712055926803</v>
+        <v>29.23691460104889</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.21256531271975</v>
+        <v>29.23691462757521</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>20.48549828004347</v>
+        <v>29.2369146359732</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>9.341522717550202</v>
+        <v>29.2369146092502</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.65842715267717</v>
+        <v>29.23691463246577</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>7.921670553921356</v>
+        <v>29.23691458201248</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>19.94221438466658</v>
+        <v>29.23691460502511</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>23.55262744904786</v>
+        <v>29.23691461208615</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>6.314011337988397</v>
+        <v>29.23691458831953</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.59887678794333</v>
+        <v>29.23691461376094</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>23.58993808096251</v>
+        <v>29.23691462156721</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>12.99709220875307</v>
+        <v>29.23691459567129</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>24.61172165019492</v>
+        <v>29.23691461793736</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.10219944333815</v>
+        <v>29.23691462476933</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>20.97330271238505</v>
+        <v>29.23691461342501</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>32.63637467525908</v>
+        <v>29.23691463807694</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.76653613891217</v>
+        <v>29.23691464547261</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>13.77115334876338</v>
+        <v>29.23691460822067</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>32.09225855699145</v>
+        <v>29.23691464324063</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>37.59270391947892</v>
+        <v>29.23691465398592</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>9.031605481076365</v>
+        <v>29.23691461753076</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.06352991611882</v>
+        <v>29.2369146420069</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>25.96144937827791</v>
+        <v>29.23691464951182</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>6.819339517098467</v>
+        <v>29.23691462499422</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>21.22236548610944</v>
+        <v>29.23691465205361</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.53116824924552</v>
+        <v>29.23691466035061</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>14.19042840196379</v>
+        <v>29.23691463356047</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.78294184510105</v>
+        <v>29.23691465724257</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>9.656471103197346</v>
+        <v>29.23691458614806</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>21.64091499102513</v>
+        <v>29.23691460906496</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>25.2196978289814</v>
+        <v>29.23691461606659</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>8.223606367221794</v>
+        <v>29.23691459276836</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.46856741267581</v>
+        <v>29.23691461810394</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>25.42466215908638</v>
+        <v>29.23691462584453</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>14.90075081566262</v>
+        <v>29.23691460011426</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.48050695172084</v>
+        <v>29.23691462228771</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.94040239787275</v>
+        <v>29.23691462906219</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>22.85774741693771</v>
+        <v>29.23691461774208</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>34.48695579548618</v>
+        <v>29.23691464227264</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.58268131216408</v>
+        <v>29.23691464960891</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>15.6444641940068</v>
+        <v>29.23691461242295</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>33.91051008026841</v>
+        <v>29.23691464729724</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>39.3627704160081</v>
+        <v>29.23691465795211</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>10.89261705673968</v>
+        <v>29.23691462167601</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.884338634021</v>
+        <v>29.23691464604926</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>27.74887473822529</v>
+        <v>29.23691465349173</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>8.868112943121476</v>
+        <v>29.23691462946303</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>23.22669712265173</v>
+        <v>29.23691465640867</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>27.49859612628972</v>
+        <v>29.23691466463664</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.23251925874039</v>
+        <v>29.23691463801813</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.78619091985547</v>
+        <v>29.23691466160068</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>11.8327476867836</v>
+        <v>29.23691456644918</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>23.91380301540782</v>
+        <v>29.23691458928708</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>27.50720327696943</v>
+        <v>29.23691459647874</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>10.1204243618169</v>
+        <v>29.2369145716747</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.47212685733491</v>
+        <v>29.23691459692294</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.44438234874471</v>
+        <v>29.23691460487362</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>16.95489069626745</v>
+        <v>29.23691457881503</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.62791954441926</v>
+        <v>29.23691460091204</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>32.10195182887266</v>
+        <v>29.23691460787039</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>24.93300599388927</v>
+        <v>29.23691459656239</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.66317625478283</v>
+        <v>29.23691462109196</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>40.76781189158523</v>
+        <v>29.23691462861494</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>17.54199470862797</v>
+        <v>29.23691459190687</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>35.95536067747271</v>
+        <v>29.23691462666093</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>41.42987349230587</v>
+        <v>29.236914637605</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>12.98905019314311</v>
+        <v>29.23691460096151</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>26.09418095870426</v>
+        <v>29.23691462525261</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.97585064386661</v>
+        <v>29.23691463289619</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>10.65519930223964</v>
+        <v>29.23691460726882</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>25.13909125903324</v>
+        <v>29.23691463412364</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.42993394737172</v>
+        <v>29.23691464257394</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>18.18763198334609</v>
+        <v>29.23691461561267</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>30.85081412806202</v>
+        <v>29.23691463911574</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.39528516771011</v>
+        <v>29.23691463981559</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>18.23772362001239</v>
+        <v>29.23691462752106</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>30.7174297139473</v>
+        <v>29.23691465342124</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>35.16418804967365</v>
+        <v>29.23691466134084</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>11.18057189474687</v>
+        <v>29.2369146217872</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>30.60805275979621</v>
+        <v>29.23691465830054</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.4973713616085</v>
+        <v>29.23691466986032</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>12.8669197734453</v>
+        <v>29.23691463946524</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>25.66768231588027</v>
+        <v>29.2369146626667</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.61591619252479</v>
+        <v>29.23691466994443</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>10.89888254589557</v>
+        <v>29.23691464684454</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>25.04670414567907</v>
+        <v>29.23691467249472</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.41114320849919</v>
+        <v>29.23691468054055</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>18.42839763255904</v>
+        <v>29.23691465540624</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>30.7979922461729</v>
+        <v>29.23691467785502</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.614806517459</v>
+        <v>29.23691468489665</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>27.84486527530652</v>
+        <v>29.23691467266404</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>40.4417996727792</v>
+        <v>29.23691469767578</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>44.98905676629498</v>
+        <v>29.23691470521102</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>20.89111904231176</v>
+        <v>29.23691466574024</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>40.40065692699811</v>
+        <v>29.23691470104757</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>46.41619135861249</v>
+        <v>29.23691471212261</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>30.55116119889645</v>
+        <v>29.23691466450403</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>23.3038113638575</v>
+        <v>29.2369146519603</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.05895036070314</v>
+        <v>29.23691467827688</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>40.55164915330623</v>
+        <v>29.23691468611366</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>16.03189132041317</v>
+        <v>29.23691464535751</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>35.89389975429822</v>
+        <v>29.2369146826046</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>41.83268821169492</v>
+        <v>29.23691469402539</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>17.28309226937533</v>
+        <v>29.2369146613086</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>30.36187187751626</v>
+        <v>29.23691468497512</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>34.34140422775631</v>
+        <v>29.23691469215961</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>15.93951857811734</v>
+        <v>29.23691467040947</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>30.39460632149589</v>
+        <v>29.23691469657379</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>34.7936378960101</v>
+        <v>29.23691470451655</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>23.62969481349754</v>
+        <v>29.23691467932624</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.2679829387281</v>
+        <v>29.23691470222499</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.1150434792475</v>
+        <v>29.23691470917641</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>33.26058221996919</v>
+        <v>29.23691469669183</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>46.12596259717434</v>
+        <v>29.23691472210484</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>50.71720008036029</v>
+        <v>29.23691472955419</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>26.08762226140476</v>
+        <v>29.23691468892194</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>46.02078847190597</v>
+        <v>29.23691472493698</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>52.08402680150072</v>
+        <v>29.23691473587014</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>32.52213443716236</v>
+        <v>29.23691466880172</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>25.3218018480416</v>
+        <v>29.23691465628193</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>38.03823469945005</v>
+        <v>29.23691468246693</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.49421546088074</v>
+        <v>29.23691469024132</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>18.03620762035515</v>
+        <v>29.23691464956502</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>37.83690513791492</v>
+        <v>29.23691468665554</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>43.72483709320264</v>
+        <v>29.23691469798129</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>19.07128151336843</v>
+        <v>29.23691466508651</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.10821136449805</v>
+        <v>29.23691468865474</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.05346656442007</v>
+        <v>29.23691469577789</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>17.90800899200255</v>
+        <v>29.23691467448923</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>32.31683417787841</v>
+        <v>29.2369147005449</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.67797461884815</v>
+        <v>29.23691470841984</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>25.58887806046295</v>
+        <v>29.23691468339114</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>38.18672986260865</v>
+        <v>29.2369147061948</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>42.00065183079479</v>
+        <v>29.23691471308686</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>35.19158256330009</v>
+        <v>29.2369147006252</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>48.01600676122117</v>
+        <v>29.23691472591229</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>52.5691739483659</v>
+        <v>29.23691473330046</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.00616542762361</v>
+        <v>29.23691469275226</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>47.87551530218536</v>
+        <v>29.23691472861774</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>53.88653517227476</v>
+        <v>29.23691473945755</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>34.60332615866183</v>
+        <v>29.23691464651135</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>27.32201909407578</v>
+        <v>29.23691463402317</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>40.16026788098939</v>
+        <v>29.23691466021339</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>44.62755150308789</v>
+        <v>29.2369146681861</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>19.85853673894114</v>
+        <v>29.23691462800454</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>39.83213713473364</v>
+        <v>29.23691466497006</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>45.74616279812346</v>
+        <v>29.23691467660185</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>20.65673287167424</v>
+        <v>29.23691464536225</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>33.81525805094979</v>
+        <v>29.23691466885269</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>37.78235566971378</v>
+        <v>29.2369146761737</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>19.17542686188643</v>
+        <v>29.23691465334889</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>33.71860813642694</v>
+        <v>29.23691467931855</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>38.10390060872808</v>
+        <v>29.23691468741223</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>27.0195644537</v>
+        <v>29.23691466205479</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>39.7348477182197</v>
+        <v>29.23691468478318</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>43.56988857493349</v>
+        <v>29.23691469186669</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>36.68633280185172</v>
+        <v>29.23691467943971</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>49.6415178966048</v>
+        <v>29.23691470473304</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>54.21153600591518</v>
+        <v>29.23691471231634</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.3448069099016</v>
+        <v>29.23691467222505</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>49.39951506842353</v>
+        <v>29.23691470797214</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>55.44381715057136</v>
+        <v>29.23691471911305</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>10.15657840653438</v>
+        <v>29.23691456823145</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>22.26928414981749</v>
+        <v>29.23691459164392</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.18109943454991</v>
+        <v>29.23691459919661</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>8.285916881091936</v>
+        <v>29.23691457369038</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>21.67256754148685</v>
+        <v>29.23691459957384</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.99679864072844</v>
+        <v>29.23691460792365</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>15.18158094427455</v>
+        <v>29.2369145810853</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.88496064198549</v>
+        <v>29.23691460373825</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.66683180911733</v>
+        <v>29.23691461104592</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>23.20516364323699</v>
+        <v>29.23691459916332</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>34.98251237336579</v>
+        <v>29.23691462447611</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>39.46387798083973</v>
+        <v>29.23691463237955</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>15.73872303956476</v>
+        <v>29.23691459430274</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>34.20075305391867</v>
+        <v>29.23691462993117</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>40.16041105966444</v>
+        <v>29.23691464142464</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>12.02677820216156</v>
+        <v>29.23691460646048</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>25.21134150866886</v>
+        <v>29.23691463139004</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.43902634085809</v>
+        <v>29.23691463942081</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>9.598284943933557</v>
+        <v>29.2369146131739</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.16994816647461</v>
+        <v>29.23691464073455</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.84326245326182</v>
+        <v>29.23691464961291</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>17.20167542276349</v>
+        <v>29.23691462182482</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.94140560197774</v>
+        <v>29.23691464594562</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>14.26129115503892</v>
+        <v>29.23691459038526</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.65317144204356</v>
+        <v>29.23691461427028</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>30.60132474998632</v>
+        <v>29.23691462173524</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>13.01380372678693</v>
+        <v>29.2369145976005</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.70898919590272</v>
+        <v>29.23691462400637</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>31.07338098529519</v>
+        <v>29.23691463225919</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>20.05964654400948</v>
+        <v>29.2369146053739</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.0328271909295</v>
+        <v>29.23691462848406</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>35.84981433346562</v>
+        <v>29.23691463570685</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.29636306619882</v>
+        <v>29.23691462361449</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>40.34457177504333</v>
+        <v>29.23691464933859</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>44.87641134149727</v>
+        <v>29.23691465716271</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>20.60846758060229</v>
+        <v>29.2369146178872</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>39.49588656299784</v>
+        <v>29.23691465423474</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.51092334938365</v>
+        <v>29.2369146655947</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>16.58107705086648</v>
+        <v>29.23691463038207</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>30.06170058302175</v>
+        <v>29.23691465581127</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>34.32974720338627</v>
+        <v>29.23691466375036</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>14.81032461345236</v>
+        <v>29.23691463896804</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.70918935787587</v>
+        <v>29.23691466708107</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>34.42711108452118</v>
+        <v>29.23691467585807</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>22.58052270889042</v>
+        <v>29.23691464802466</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>35.60637721951866</v>
+        <v>29.23691467262891</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>16.08532653189694</v>
+        <v>29.23691459477791</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.44039125218322</v>
+        <v>29.23691461856508</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>32.35522689697189</v>
+        <v>29.2369146259678</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>15.02238133269188</v>
+        <v>29.23691460232363</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.67687111414176</v>
+        <v>29.23691462862133</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.00443058943221</v>
+        <v>29.23691463680534</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.06242319741107</v>
+        <v>29.23691461009467</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>34.00004041310979</v>
+        <v>29.23691463311015</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>37.7848131522731</v>
+        <v>29.23691464027271</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>30.28061836338256</v>
+        <v>29.23691462820534</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.29438796659672</v>
+        <v>29.23691465380375</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>46.78982256723454</v>
+        <v>29.2369146615655</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>22.58068906720914</v>
+        <v>29.23691462235466</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>41.41195364018326</v>
+        <v>29.23691465855331</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>47.37623438891265</v>
+        <v>29.23691466981855</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>18.52750300455096</v>
+        <v>29.23691463476374</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>31.96682811322838</v>
+        <v>29.23691466008738</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.19961236334909</v>
+        <v>29.23691466796095</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>16.95415216744778</v>
+        <v>29.23691464368967</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>31.80736378048974</v>
+        <v>29.236914671686</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.48630426345217</v>
+        <v>29.23691468039057</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>24.71768567849091</v>
+        <v>29.23691465273834</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>37.70364083852924</v>
+        <v>29.23691467724044</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>18.31041058964347</v>
+        <v>29.23691457369234</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>30.76264100027172</v>
+        <v>29.23691459739815</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>34.69202671915481</v>
+        <v>29.23691460499798</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>16.95648152094661</v>
+        <v>29.23691457976366</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>30.71832025908251</v>
+        <v>29.23691460597143</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>35.06196625555841</v>
+        <v>29.23691461437335</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>24.15699351379143</v>
+        <v>29.23691458729937</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.18841161161362</v>
+        <v>29.23691461023615</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.98725494807026</v>
+        <v>29.23691461758943</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>32.40024933210785</v>
+        <v>29.23691460552346</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>44.51710560833611</v>
+        <v>29.23691463112392</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>49.02035425685185</v>
+        <v>29.23691463908068</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>24.51837799823594</v>
+        <v>29.2369146003815</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.49780609808185</v>
+        <v>29.23691463645635</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>49.48424121599881</v>
+        <v>29.23691464802155</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>20.67588108933174</v>
+        <v>29.23691461264344</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>34.23060528262578</v>
+        <v>29.23691463788344</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>38.48101350831253</v>
+        <v>29.23691464596551</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>18.7815207146393</v>
+        <v>29.23691462000916</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>33.76223432706092</v>
+        <v>29.23691464791303</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>38.46066053046724</v>
+        <v>29.23691465684809</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>26.71655594259768</v>
+        <v>29.23691462881612</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>39.81393756749437</v>
+        <v>29.23691465323731</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.02843050550123</v>
+        <v>29.23691465371588</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>26.4210705149196</v>
+        <v>29.23691464057474</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>39.36500830376834</v>
+        <v>29.23691466763744</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>44.24520442872853</v>
+        <v>29.23691467602135</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>18.86774044820967</v>
+        <v>29.23691463424913</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>38.96280047374163</v>
+        <v>29.23691467218622</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>45.4040081389293</v>
+        <v>29.23691468440723</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>19.45578672272171</v>
+        <v>29.23691465272154</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>32.71763743114189</v>
+        <v>29.23691467684263</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>37.03460759627279</v>
+        <v>29.2369146845322</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>17.9386612228978</v>
+        <v>29.23691466113215</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>32.59598904164281</v>
+        <v>29.23691468779901</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.36802098211685</v>
+        <v>29.23691469630014</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>25.83150674825905</v>
+        <v>29.23691467013965</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>38.64642590133176</v>
+        <v>29.23691469347822</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>42.8197126972262</v>
+        <v>29.23691470091832</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>35.61131772872861</v>
+        <v>29.23691468777551</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>48.70578297789181</v>
+        <v>29.23691471392674</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>53.69359686001425</v>
+        <v>29.23691472189898</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.18475931601211</v>
+        <v>29.23691468018659</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>48.39722997240932</v>
+        <v>29.23691471689337</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.97458284639859</v>
+        <v>29.23691472859514</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>39.73240518173708</v>
+        <v>29.23691468031044</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>32.02667857801152</v>
+        <v>29.23691466691565</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>45.25707926933935</v>
+        <v>29.2369146944093</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.19298036794849</v>
+        <v>29.23691470270938</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>24.24114341467007</v>
+        <v>29.23691465966201</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>44.78732342301926</v>
+        <v>29.23691469835945</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>51.29004563327727</v>
+        <v>29.23691471044093</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>24.34451267802259</v>
+        <v>29.23691467626092</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>37.89508066924621</v>
+        <v>29.23691470086444</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>42.25118073070436</v>
+        <v>29.23691470846061</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>23.49829290950782</v>
+        <v>29.23691468649605</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>38.47471198277142</v>
+        <v>29.23691471369627</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.28999174394045</v>
+        <v>29.23691472209414</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>31.56414213071544</v>
+        <v>29.23691469589671</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>44.65809230580984</v>
+        <v>29.23691471970207</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>48.8691951527598</v>
+        <v>29.2369147270518</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>41.56682520842764</v>
+        <v>29.2369147136482</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>54.94067522182344</v>
+        <v>29.23691474021511</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>59.98211087330956</v>
+        <v>29.23691474810068</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>33.9033056859238</v>
+        <v>29.23691470515613</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>54.55571499992551</v>
+        <v>29.23691474259708</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>61.1927027178877</v>
+        <v>29.2369147541567</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>41.79557573973506</v>
+        <v>29.23691468485859</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>34.14013105714006</v>
+        <v>29.23691467148884</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>47.33079777349343</v>
+        <v>29.23691469884574</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>52.22774605312971</v>
+        <v>29.23691470708022</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>26.34022718450273</v>
+        <v>29.23691466411331</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>46.82342253824253</v>
+        <v>29.2369147026501</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>53.27242539053193</v>
+        <v>29.23691471463189</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.21746476091846</v>
+        <v>29.23691468024918</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.72493853733914</v>
+        <v>29.2369147047517</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.04482077774644</v>
+        <v>29.23691471228369</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>25.56061913343899</v>
+        <v>29.23691469080157</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>40.48939983189551</v>
+        <v>29.23691471789012</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.26464284934796</v>
+        <v>29.23691472621705</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>33.61721971249914</v>
+        <v>29.23691470019006</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>46.66953198106106</v>
+        <v>29.23691472389768</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>50.84561950168219</v>
+        <v>29.23691473118533</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>43.59150331159509</v>
+        <v>29.23691471780564</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>56.92317678911582</v>
+        <v>29.23691474424147</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>61.92416699203028</v>
+        <v>29.23691475206289</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>35.91470882664062</v>
+        <v>29.23691470920364</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>56.50140169546072</v>
+        <v>29.23691474649089</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>63.08321423157872</v>
+        <v>29.23691475795285</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>43.92291372192331</v>
+        <v>29.23691466105718</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.19026755629958</v>
+        <v>29.23691464770852</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>49.50671164566518</v>
+        <v>29.23691467507519</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>54.41445604746733</v>
+        <v>29.2369146835166</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.2084192130807</v>
+        <v>29.23691464107572</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>48.86754739610883</v>
+        <v>29.23691467948525</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>55.34339514866353</v>
+        <v>29.23691469178431</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>27.81827896102308</v>
+        <v>29.23691465919268</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>41.45047583513208</v>
+        <v>29.23691468361567</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>45.79313914092774</v>
+        <v>29.2369146913524</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.83202790027903</v>
+        <v>29.23691466825294</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>41.89861597200591</v>
+        <v>29.23691469525357</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>46.69904888792484</v>
+        <v>29.23691470380685</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>35.0545845112299</v>
+        <v>29.23691467741738</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>48.22734391537788</v>
+        <v>29.23691470104806</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>52.42545667424374</v>
+        <v>29.2369147085338</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>45.10091905612144</v>
+        <v>29.23691469518139</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>58.56869653431438</v>
+        <v>29.23691472162768</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>63.58636809867793</v>
+        <v>29.23691472965219</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>37.26563127281143</v>
+        <v>29.23691468727908</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>58.04244484215253</v>
+        <v>29.2369147244453</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>64.65897432088258</v>
+        <v>29.23691473621884</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/additive/ranking_test2/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.111</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.797</v>
+        <v>18.324</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.022</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.408</v>
+        <v>19.211</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.019</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.304</v>
+        <v>15.426</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>29.23691455845947</v>
+        <v>-11.66790786677139</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>29.23691458157947</v>
+        <v>12.10703046279749</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.23691458907035</v>
+        <v>17.46316456110079</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.23691456327379</v>
+        <v>-10.61306523270931</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>29.23691458883391</v>
+        <v>4.328220723573889</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.23691459711539</v>
+        <v>10.58824524704945</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>29.2369145704292</v>
+        <v>-0.4676421017217649</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>29.23691459279915</v>
+        <v>11.55243767358335</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.23691460004702</v>
+        <v>16.12734418254704</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.23691458853236</v>
+        <v>13.94133090127116</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.23691461354283</v>
+        <v>20.80286600014786</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.23691462138533</v>
+        <v>24.77434786835323</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>29.23691458412047</v>
+        <v>-5.723931480795859</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.23691461930383</v>
+        <v>12.78212348871216</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.23691463070324</v>
+        <v>19.28022195428975</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.23691459625401</v>
+        <v>-11.9308596484967</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.23691462087566</v>
+        <v>14.38524443305627</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>29.23691462884418</v>
+        <v>21.96119337514274</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>29.2369146023257</v>
+        <v>-14.0350105513037</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>29.23691462954595</v>
+        <v>3.691906642177187</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>29.23691463835548</v>
+        <v>12.00346604481274</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>29.23691461072198</v>
+        <v>-1.776477242906889</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>29.23691463454486</v>
+        <v>12.37700800001278</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>29.23691458036734</v>
+        <v>-3.545982049545469</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.23691460395445</v>
+        <v>22.17857163405082</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.2369146113596</v>
+        <v>27.35401426626787</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>29.23691458692045</v>
+        <v>-0.05709168527770814</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>29.23691461299698</v>
+        <v>16.67330472142706</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>29.23691462118368</v>
+        <v>22.7273859361204</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>29.23691459445218</v>
+        <v>10.88695560347461</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>29.2369146172741</v>
+        <v>24.46216700871951</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>29.23691462443902</v>
+        <v>28.85220693578218</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>29.23691461272023</v>
+        <v>28.28779751249349</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>29.23691463813736</v>
+        <v>35.71957771180999</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.23691464590257</v>
+        <v>39.56844656121865</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>29.2369146074523</v>
+        <v>7.041166655857136</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.23691464334649</v>
+        <v>27.6576177541323</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>29.23691465461545</v>
+        <v>33.90612059499637</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>29.23691461992089</v>
+        <v>-1.172803654188012</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>29.23691464503653</v>
+        <v>27.29385951849889</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>29.23691465291553</v>
+        <v>34.76985046918823</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>29.2369146278474</v>
+        <v>-0.5531251120413785</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>29.23691465561378</v>
+        <v>19.16951924189114</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>29.23691466432434</v>
+        <v>27.35404709855325</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>29.23691466094816</v>
+        <v>28.53390833003157</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>29.23691458480597</v>
+        <v>-2.993154467091124</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>29.23691460829657</v>
+        <v>23.04286216696116</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.23691461564026</v>
+        <v>28.29564464715143</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>29.23691459169113</v>
+        <v>1.214935491809904</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>29.23691461766096</v>
+        <v>18.31439500367043</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.23691462577972</v>
+        <v>24.43415799951776</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>29.23691459922234</v>
+        <v>12.15311630167326</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>29.23691462195088</v>
+        <v>26.05515638521631</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>29.23691462905634</v>
+        <v>30.50742379944418</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>29.23691461736058</v>
+        <v>30.11381977295709</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.23691464265361</v>
+        <v>37.6344149098438</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>29.23691465035724</v>
+        <v>41.54424336462651</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>29.23691461196742</v>
+        <v>8.595223426987523</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>29.23691464771475</v>
+        <v>29.63501158340851</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>29.23691465889018</v>
+        <v>35.9624281019869</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>29.23691462435077</v>
+        <v>-0.1809551789083521</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.23691464936227</v>
+        <v>28.62529491060421</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.23691465717656</v>
+        <v>36.19671860817818</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.23691463261873</v>
+        <v>1.230715377223905</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>29.23691466026997</v>
+        <v>21.35051412191962</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>29.23691466890899</v>
+        <v>29.62014686137539</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>29.23691464141267</v>
+        <v>14.4399796468797</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>29.23691466561275</v>
+        <v>30.67051003374987</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>29.23691456380145</v>
+        <v>-7.000843946776346</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>29.23691458721138</v>
+        <v>18.01396631313779</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>29.23691459474944</v>
+        <v>23.71101876377335</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>29.23691456921821</v>
+        <v>-3.857449753552</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>29.23691459509887</v>
+        <v>12.30208105810355</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>29.2369146034325</v>
+        <v>18.88784293539244</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>29.23691457651263</v>
+        <v>6.413958408660022</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>29.23691459916312</v>
+        <v>19.48583940125972</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>29.23691460645663</v>
+        <v>24.3435537545015</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>29.23691459476247</v>
+        <v>22.31430661153649</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>29.23691462005739</v>
+        <v>29.53782943564222</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>29.23691462795326</v>
+        <v>33.78037412856332</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>29.2369145900749</v>
+        <v>1.612782872163137</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>29.23691462569948</v>
+        <v>21.53817894647445</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.23691463717068</v>
+        <v>28.41100127014599</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>29.23691460231328</v>
+        <v>-5.914198316599947</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>29.23691462724181</v>
+        <v>21.76521214022353</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>29.23691463526168</v>
+        <v>29.75900972924662</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>29.23691460902723</v>
+        <v>-5.81823844490539</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>29.23691463658676</v>
+        <v>13.25756184366944</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>29.23691464545306</v>
+        <v>21.97371749339045</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.23691461757772</v>
+        <v>6.627292221541097</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>29.23691464169754</v>
+        <v>21.94158387323485</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.23691464225488</v>
+        <v>18.65511415169077</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>29.23691462950029</v>
+        <v>16.28440432460021</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>29.23691465624407</v>
+        <v>25.16252608939008</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.23691466456672</v>
+        <v>30.76234559893736</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>29.23691462364314</v>
+        <v>-4.456343790611221</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>29.23691466111167</v>
+        <v>17.39853571921309</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>29.23691467323794</v>
+        <v>26.17102981649883</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>29.23691464317035</v>
+        <v>-7.517381709604773</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>29.2369146669982</v>
+        <v>20.33548303078888</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>29.2369146746305</v>
+        <v>28.78236612788127</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>29.23691465099997</v>
+        <v>-9.146909816494865</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>29.23691467734265</v>
+        <v>10.51168011342979</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>29.23691468578047</v>
+        <v>19.61149020244492</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>29.23691465977021</v>
+        <v>5.414566619311938</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>29.23691468282506</v>
+        <v>21.24213955495651</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.23691469020975</v>
+        <v>28.20033126667966</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>29.23691467744248</v>
+        <v>28.18880538275858</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>29.23691470329057</v>
+        <v>37.85628612203919</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>29.2369147112065</v>
+        <v>44.09377605820635</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>29.23691467029678</v>
+        <v>5.608690319458692</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.23691470655732</v>
+        <v>29.63114336474112</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>29.23691471817194</v>
+        <v>39.3477251323927</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>29.23691466857155</v>
+        <v>34.6965027434358</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>29.2369146555696</v>
+        <v>33.81736793014193</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>29.23691468273957</v>
+        <v>43.30064258930634</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.23691469098057</v>
+        <v>48.79964095556978</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.23691464879558</v>
+        <v>11.40074082576204</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>29.23691468701585</v>
+        <v>35.60137177081769</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>29.23691469900588</v>
+        <v>44.20952665430146</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>29.23691466647876</v>
+        <v>5.74610212948058</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>29.23691469078367</v>
+        <v>35.80301605447698</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>29.23691469832469</v>
+        <v>44.07339098472437</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.23691467611713</v>
+        <v>7.121549364838906</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.23691470298722</v>
+        <v>28.82439817854301</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>29.23691471132414</v>
+        <v>37.72102555788986</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>29.23691468527892</v>
+        <v>22.68805506798225</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>29.23691470879535</v>
+        <v>40.2908184685127</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>29.23691471609174</v>
+        <v>47.06664772776836</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>29.23691470307003</v>
+        <v>48.62323062174602</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>29.23691472932925</v>
+        <v>58.88862752005262</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>29.23691473716064</v>
+        <v>65.0059355346835</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>29.23691469503142</v>
+        <v>24.31729244119896</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>29.23691473201794</v>
+        <v>50.7417038216244</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>29.23691474349366</v>
+        <v>60.21012117934322</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>29.23691467317354</v>
+        <v>36.91239605356424</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>29.23691466019468</v>
+        <v>36.12900995580164</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>29.23691468722959</v>
+        <v>45.69359900042787</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>29.2369146954058</v>
+        <v>51.26270326571954</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>29.23691465329685</v>
+        <v>13.45548438849404</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>29.23691469135863</v>
+        <v>38.11042934930553</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.2369147032502</v>
+        <v>46.81903231516263</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.236914670514</v>
+        <v>7.690845666864416</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>29.23691469471926</v>
+        <v>38.09011899670473</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>29.23691470219689</v>
+        <v>46.43085988405206</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>29.23691468047099</v>
+        <v>9.931866971666462</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>29.23691470723091</v>
+        <v>32.03016130817488</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>29.23691471549774</v>
+        <v>40.98800449841406</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>29.23691468962254</v>
+        <v>25.50606506094134</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>29.23691471304255</v>
+        <v>43.46071957930268</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.2369147202776</v>
+        <v>50.29519482515452</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.23691470727794</v>
+        <v>51.94305874324485</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>29.23691473340768</v>
+        <v>62.2814201066314</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>29.23691474117571</v>
+        <v>68.45969806924225</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>29.23691469912751</v>
+        <v>27.36459082210579</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>29.23691473596239</v>
+        <v>54.24173096169086</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>29.23691474734163</v>
+        <v>63.78392953077913</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.23691464945724</v>
+        <v>28.56920985758531</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.23691463649931</v>
+        <v>26.14924414732741</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>29.23691466354371</v>
+        <v>35.41375488689963</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>29.23691467192393</v>
+        <v>41.33827558358908</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>29.23691463034092</v>
+        <v>4.388670761332822</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.23691466827645</v>
+        <v>27.81147980029976</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>29.23691468048087</v>
+        <v>37.04579725181878</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>29.23691464952863</v>
+        <v>0.9344106625987045</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>29.23691467365498</v>
+        <v>30.18038810554025</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>29.23691468133458</v>
+        <v>39.01165370228894</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>29.23691465799885</v>
+        <v>1.642754345186823</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>29.23691468467154</v>
+        <v>22.67668788615766</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>29.23691469316164</v>
+        <v>32.15008340571438</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.23691466692445</v>
+        <v>16.4689186894837</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>29.23691469026811</v>
+        <v>33.48323524847306</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>29.23691469769857</v>
+        <v>40.76430725716422</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>29.2369146847258</v>
+        <v>40.72439101672848</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>29.23691471086575</v>
+        <v>50.77604888205089</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.23691471883409</v>
+        <v>57.3360220943952</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.23691467727221</v>
+        <v>17.0406768145635</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>29.23691471398702</v>
+        <v>42.66155075882799</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.2369147256736</v>
+        <v>52.8069712832466</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>29.23691456707347</v>
+        <v>-0.6049031035026822</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>29.2369145901079</v>
+        <v>24.23370225675581</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>29.23691459743355</v>
+        <v>29.14122298539683</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>29.23691457225324</v>
+        <v>1.705173879142492</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>29.23691459771877</v>
+        <v>18.22511069902772</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.23691460581757</v>
+        <v>24.00468063441315</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>29.23691457949708</v>
+        <v>12.70681194819414</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>29.23691460178426</v>
+        <v>26.15461104516055</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>29.23691460887225</v>
+        <v>30.3495670498218</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>29.23691459728609</v>
+        <v>28.30849326118763</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>29.23691462211136</v>
+        <v>35.69180869318307</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>29.23691462976979</v>
+        <v>39.15787478665548</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.23691459254329</v>
+        <v>7.769457236868002</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>29.23691462759646</v>
+        <v>28.00163937561762</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>29.23691463874442</v>
+        <v>33.98033708694102</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.23691460294265</v>
+        <v>-3.3222239123068</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>29.23691462745408</v>
+        <v>23.89825068238999</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>29.23691463523777</v>
+        <v>30.73347201384275</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.23691460925165</v>
+        <v>-4.145176945589501</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>29.23691463635006</v>
+        <v>14.98625223639064</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>29.23691464495526</v>
+        <v>22.5200257498486</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>29.2369146177221</v>
+        <v>8.819544466076726</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>29.23691464143835</v>
+        <v>24.27168564200658</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>29.23691458824389</v>
+        <v>6.679953661353647</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>29.23691461174018</v>
+        <v>33.41373354907569</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>29.23691461897801</v>
+        <v>38.11919057399734</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.23691459511885</v>
+        <v>11.25177531046115</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>29.23691462109497</v>
+        <v>29.51188521440999</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>29.2369146290967</v>
+        <v>35.06732639905017</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>29.23691460271655</v>
+        <v>23.03723181328187</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>29.23691462545059</v>
+        <v>38.0007955529057</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>29.23691463245363</v>
+        <v>41.9948966624292</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>29.23691462065926</v>
+        <v>41.50592743835004</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>29.2369146458866</v>
+        <v>49.44840231136403</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>29.23691465346608</v>
+        <v>52.78099053663743</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>29.2369146150835</v>
+        <v>19.44201236002301</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>29.23691465083949</v>
+        <v>41.72849080403895</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>29.23691466185383</v>
+        <v>47.43623223470962</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>29.23691462581817</v>
+        <v>6.417862386792489</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.23691465081811</v>
+        <v>35.7227117781302</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>29.23691465850986</v>
+        <v>42.42844360280095</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.23691463393573</v>
+        <v>8.138680188685059</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>29.2369146615742</v>
+        <v>29.20419488101626</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>29.23691467007775</v>
+        <v>36.58462046299334</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>29.23691464278589</v>
+        <v>22.02372377309106</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>29.2369146669748</v>
+        <v>39.15147759857887</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.23691459245575</v>
+        <v>6.930742897936199</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.23691461585451</v>
+        <v>33.94946722324224</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>29.23691462303153</v>
+        <v>38.71963741226347</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>29.23691459964973</v>
+        <v>12.16725721610769</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.23691462551803</v>
+        <v>30.76525406668235</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.23691463345253</v>
+        <v>36.37497832002639</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>29.23691460724186</v>
+        <v>23.93465005190999</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>29.23691462988154</v>
+        <v>39.19883913155422</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>29.23691463682573</v>
+        <v>43.24472577875636</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>29.23691462505686</v>
+        <v>42.93658900665215</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.23691465015994</v>
+        <v>50.95941664444899</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>29.23691465767861</v>
+        <v>54.34701944000474</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>29.2369146193637</v>
+        <v>20.62235184527307</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>29.23691465497128</v>
+        <v>43.29783670468696</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.23691466589307</v>
+        <v>49.07064209290444</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>29.23691463002801</v>
+        <v>7.093584656431789</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>29.23691465492295</v>
+        <v>36.70980320973669</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.23691466255075</v>
+        <v>43.49818117272634</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>29.23691463847457</v>
+        <v>9.550058587110712</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>29.23691466599695</v>
+        <v>30.97973308418078</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.2369146744298</v>
+        <v>38.4338779505744</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>29.23691464731359</v>
+        <v>23.42246991117841</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>29.2369146714009</v>
+        <v>40.87432171633075</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>29.23691457224159</v>
+        <v>3.408953844468851</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>29.2369145955628</v>
+        <v>29.44250467990395</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.23691460293322</v>
+        <v>34.64903346752861</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>29.23691457801146</v>
+        <v>7.695168073931541</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>29.23691460379403</v>
+        <v>25.38593514311736</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>29.23691461194233</v>
+        <v>31.4520004101502</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>29.23691458538831</v>
+        <v>18.8104417423988</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>29.23691460795295</v>
+        <v>33.27261006889567</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>29.23691461508426</v>
+        <v>37.71534327590528</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>29.23691460332103</v>
+        <v>35.86818446835031</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>29.23691462842693</v>
+        <v>43.60268350990888</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>29.23691463613611</v>
+        <v>47.31222518058019</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>29.23691459830784</v>
+        <v>14.32932250711092</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>29.23691463379741</v>
+        <v>35.92894489305103</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>29.2369146450135</v>
+        <v>42.23586401410324</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>29.23691460880095</v>
+        <v>1.907419440532323</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>29.23691463361587</v>
+        <v>30.43776027581994</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>29.23691464144828</v>
+        <v>37.64371287811899</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.23691461573831</v>
+        <v>3.163668401820047</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>29.23691464317224</v>
+        <v>23.58730702600223</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>29.2369146518313</v>
+        <v>31.48147234365143</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>29.2369146243565</v>
+        <v>16.29703116578032</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>29.23691464836639</v>
+        <v>32.86491784099127</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>29.23691464896953</v>
+        <v>29.91358763041804</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.23691463618702</v>
+        <v>27.85773146595411</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>29.2369146627096</v>
+        <v>37.11770859182187</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.2369146708262</v>
+        <v>42.06953393662356</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>29.2369146300488</v>
+        <v>6.446890394513293</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>29.23691466734961</v>
+        <v>29.82371757542055</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.23691467919461</v>
+        <v>37.73779558631064</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.23691464785784</v>
+        <v>0.1480017711827664</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>29.23691467156606</v>
+        <v>28.73169150795627</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>29.2369146790248</v>
+        <v>36.45590764162834</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.23691465584649</v>
+        <v>-0.2627982515234244</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>29.23691468205692</v>
+        <v>20.61170973409125</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>29.23691469030287</v>
+        <v>28.96309776935988</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>29.23691466467441</v>
+        <v>14.85778955044576</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>29.23691468761351</v>
+        <v>31.81769164855334</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.23691469483028</v>
+        <v>38.1669214274422</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.23691468208818</v>
+        <v>38.28193639547705</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.23691470771043</v>
+        <v>48.28235075670034</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>29.23691471543472</v>
+        <v>53.85788422590227</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.236914674738</v>
+        <v>15.19406398956694</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>29.2369147108165</v>
+        <v>40.52363942354458</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.23691472216701</v>
+        <v>49.4030645115231</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>29.23691467441703</v>
+        <v>44.65470651443687</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>29.23691466138364</v>
+        <v>44.03523043484785</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>29.23691468832768</v>
+        <v>53.88600259999127</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>29.23691469636065</v>
+        <v>58.72508569926833</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>29.23691465435224</v>
+        <v>21.01473340339653</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>29.23691469239645</v>
+        <v>46.66696958096239</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>29.23691470410154</v>
+        <v>54.38684239812168</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>29.23691467037241</v>
+        <v>12.20572054262447</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>29.23691468012456</v>
+        <v>14.60405768616156</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>29.23691470685619</v>
+        <v>37.4550793879023</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>29.2369147149985</v>
+        <v>45.58072736877439</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>29.23691468932112</v>
+        <v>30.69117471157153</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>29.23691471271637</v>
+        <v>49.37067717405905</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>29.23691471984244</v>
+        <v>55.51802145111598</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>29.23691470684499</v>
+        <v>57.138229963154</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>29.23691473287368</v>
+        <v>67.7192419903364</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>29.23691474051137</v>
+        <v>73.16555583260978</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>29.23691469862573</v>
+        <v>32.39923966742784</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>29.23691473542167</v>
+        <v>60.05291863769551</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>29.23691474662952</v>
+        <v>68.65868629836619</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.23691467878125</v>
+        <v>46.44632120808564</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>29.23691466577318</v>
+        <v>45.93770808107941</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>29.23691469258229</v>
+        <v>55.8615809411676</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>29.23691470055137</v>
+        <v>60.76465821537295</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>29.23691465862549</v>
+        <v>22.68270840548202</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>29.2369146965099</v>
+        <v>48.75297081817686</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>29.23691470811767</v>
+        <v>56.5595330806232</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>29.23691467420368</v>
+        <v>13.79003202397125</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>29.23691469828296</v>
+        <v>44.81924288598582</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>29.2369147055852</v>
+        <v>52.39993874996799</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>29.23691468426278</v>
+        <v>16.99455137266866</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>29.23691471088341</v>
+        <v>40.20920691095421</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>29.23691471895635</v>
+        <v>48.38455290401583</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>29.23691469344426</v>
+        <v>33.07513084536632</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>29.23691471674237</v>
+        <v>52.07965933985342</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>29.23691472380773</v>
+        <v>58.27507281818804</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>29.23691471083449</v>
+        <v>60.00231646038482</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>29.23691473673394</v>
+        <v>70.64849211238557</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>29.23691474430903</v>
+        <v>76.14967265409005</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>29.2369147025104</v>
+        <v>35.01503075966825</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>29.23691473915356</v>
+        <v>63.08644365360971</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.23691475026591</v>
+        <v>71.75217419548761</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>29.23691465594471</v>
+        <v>38.81687941499925</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>29.23691464296181</v>
+        <v>36.76593784471876</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>29.23691466978097</v>
+        <v>46.39874662773178</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>29.23691467795225</v>
+        <v>51.64457925748</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.23691463652814</v>
+        <v>14.37839045268166</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>29.23691467429079</v>
+        <v>39.26084867583586</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>29.23691468620992</v>
+        <v>47.58470974269325</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>29.23691465400056</v>
+        <v>7.703070156204987</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>29.23691467800391</v>
+        <v>37.6265620217028</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>29.23691468550735</v>
+        <v>45.68781302233138</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>29.23691466261556</v>
+        <v>9.50400131766459</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>29.23691468915226</v>
+        <v>31.697723103742</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>29.23691469744763</v>
+        <v>40.37784609943911</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>29.23691467159252</v>
+        <v>24.86637025368499</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.23691469481717</v>
+        <v>42.96820241220941</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>29.23691470207719</v>
+        <v>49.60040778820395</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.23691468913346</v>
+        <v>49.74064076019307</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>29.23691471504363</v>
+        <v>60.11247084248471</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>29.23691472281753</v>
+        <v>65.97814527576567</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>29.23691468148189</v>
+        <v>25.5995797173994</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>29.23691471800951</v>
+        <v>52.46589553988117</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>29.23691472942803</v>
+        <v>61.7212602534191</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>29.23691456220186</v>
+        <v>0.3795785381361902</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>29.23691458492237</v>
+        <v>25.6434013727424</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>29.23691459209719</v>
+        <v>30.43951793564023</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.2369145668213</v>
+        <v>1.782739470931478</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>29.23691459193978</v>
+        <v>18.68591236937496</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>29.23691459987183</v>
+        <v>24.33709986412837</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>29.23691457389805</v>
+        <v>13.23231392291368</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>29.23691459588149</v>
+        <v>26.99239250834875</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>29.23691460282355</v>
+        <v>31.05425969872321</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>29.23691459148576</v>
+        <v>28.63735953326461</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.23691461593182</v>
+        <v>36.10815726093594</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>29.23691462343153</v>
+        <v>39.54893082881487</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>29.23691458696095</v>
+        <v>7.551741843309017</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>29.23691462153639</v>
+        <v>28.26148497984119</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>29.23691463245483</v>
+        <v>34.07130422440606</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>29.23691459612569</v>
+        <v>-2.659768788579612</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>29.23691462028299</v>
+        <v>24.91215245661015</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.23691462791006</v>
+        <v>31.70856173621181</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>29.23691460179391</v>
+        <v>-4.401705030070019</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>29.2369146285008</v>
+        <v>15.04157082007166</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.23691463693284</v>
+        <v>22.52564992562883</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>29.23691461005991</v>
+        <v>8.993592880529672</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>29.23691463343351</v>
+        <v>24.69600968735901</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>29.23691458287432</v>
+        <v>7.5963988930665</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>29.23691460605422</v>
+        <v>34.78244985570005</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.23691461314084</v>
+        <v>39.36665235137114</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>29.23691458915451</v>
+        <v>11.25059825788683</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>29.23691461478085</v>
+        <v>29.9179391842859</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>29.23691462261541</v>
+        <v>35.33735737339972</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>29.23691459657298</v>
+        <v>23.50529124688079</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>29.2369146190009</v>
+        <v>38.80331067845422</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>29.23691462585762</v>
+        <v>42.65602983861231</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>29.23691461430551</v>
+        <v>41.79938755130887</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>29.2369146391519</v>
+        <v>49.84242893114123</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>29.23691464657255</v>
+        <v>53.14781136029144</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>29.23691460896384</v>
+        <v>19.16951445869335</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>29.23691464423835</v>
+        <v>41.96318770921265</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>29.23691465502258</v>
+        <v>47.49216944320342</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>29.23691461847134</v>
+        <v>7.047962008242187</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.23691464311468</v>
+        <v>36.73127267897424</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>29.23691465064948</v>
+        <v>43.39016403247996</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>29.23691462591226</v>
+        <v>7.842256128886365</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>29.2369146531565</v>
+        <v>29.24454116409128</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.23691466148653</v>
+        <v>36.56960803240776</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>29.23691463454554</v>
+        <v>22.18180916057883</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>29.23691465838942</v>
+        <v>39.58240321661268</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.23691458703997</v>
+        <v>7.735797836458074</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>29.23691461012344</v>
+        <v>35.20716391826939</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.23691461715034</v>
+        <v>39.8569386780058</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>29.23691459363619</v>
+        <v>12.06034551903466</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>29.23691461915593</v>
+        <v>31.06556857586292</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>29.23691462692446</v>
+        <v>36.54116445369034</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>29.23691460104863</v>
+        <v>24.2927397425621</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>29.23691462338325</v>
+        <v>39.89197319331404</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.23691463018219</v>
+        <v>43.79779440016192</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>29.23691461865483</v>
+        <v>43.12692394591119</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>29.2369146433788</v>
+        <v>51.25190230058108</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>29.23691465073973</v>
+        <v>54.61393537143883</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.23691461319795</v>
+        <v>20.24951080434944</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>29.23691464832572</v>
+        <v>43.43248122374555</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>29.23691465901907</v>
+        <v>49.02828847414291</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.23691462264545</v>
+        <v>7.60066990156772</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>29.23691464718516</v>
+        <v>37.59575752149887</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>29.2369146546572</v>
+        <v>44.33862683119175</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>29.2369146304126</v>
+        <v>9.135787330788265</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.23691465754226</v>
+        <v>30.90240040826578</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>29.23691466580291</v>
+        <v>38.30369463765884</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>29.23691463903458</v>
+        <v>23.45834866455405</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.23691466277819</v>
+        <v>41.18374164908913</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>29.23691456720395</v>
+        <v>4.226597452867928</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>29.23691459020715</v>
+        <v>30.69638394356464</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>29.23691459742548</v>
+        <v>35.79239650689289</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>29.23691457239826</v>
+        <v>7.613504727984607</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>29.23691459782925</v>
+        <v>25.69667957339827</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>29.23691460580942</v>
+        <v>31.63768406987457</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>29.23691457960417</v>
+        <v>19.17312192124314</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>29.23691460186112</v>
+        <v>33.9565096765419</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.23691460884528</v>
+        <v>38.26778114553819</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>29.23691459733361</v>
+        <v>36.04511116614378</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.23691462205602</v>
+        <v>43.87432614919867</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>29.23691462960504</v>
+        <v>47.56255803753277</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>29.23691459254559</v>
+        <v>13.95682361560797</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>29.2369146275512</v>
+        <v>36.04635585946033</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>29.23691463853586</v>
+        <v>42.18663928747549</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>29.23691460179617</v>
+        <v>2.354717758719136</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>29.23691462625252</v>
+        <v>31.2462844795643</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>29.23691463392706</v>
+        <v>38.41670758967708</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>29.23691460807633</v>
+        <v>2.697124658620758</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.23691463511384</v>
+        <v>23.44084853084008</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>29.23691464359837</v>
+        <v>31.29161457906216</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>29.23691461648598</v>
+        <v>16.25682484889408</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>29.23691464014894</v>
+        <v>33.0830349304455</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>29.23691464081315</v>
+        <v>30.265491741437</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>29.23691462832526</v>
+        <v>27.79179797257807</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>29.23691465442045</v>
+        <v>37.09307619870954</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.23691466237196</v>
+        <v>42.0656798424581</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>29.23691462246756</v>
+        <v>5.848981646857681</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>29.23691465922945</v>
+        <v>29.62259141586671</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>29.23691467083611</v>
+        <v>37.45230025356769</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>29.23691464034009</v>
+        <v>0.7421981412634544</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.23691466369384</v>
+        <v>29.69674537817425</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.23691467101028</v>
+        <v>37.40319196737994</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>29.23691464769908</v>
+        <v>-0.5771121627729023</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>29.23691467351762</v>
+        <v>20.64046172830715</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>29.23691468160625</v>
+        <v>28.95360212707146</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>29.23691465632401</v>
+        <v>14.9745863625235</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>29.23691467892014</v>
+        <v>32.21341990462993</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>29.23691468599922</v>
+        <v>38.50301068996318</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>29.2369146735848</v>
+        <v>38.24199702762676</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>29.2369146987818</v>
+        <v>48.31755869669983</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>29.23691470635672</v>
+        <v>53.92356147944686</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.23691466654695</v>
+        <v>14.63114459979093</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>29.23691470208604</v>
+        <v>40.38622722101094</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>29.23691471321998</v>
+        <v>49.19758261547059</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>29.23691466567979</v>
+        <v>45.00653235948454</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.23691465293572</v>
+        <v>43.98128894009442</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>29.23691467945084</v>
+        <v>53.88639425725373</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>29.23691468731865</v>
+        <v>58.74486287977277</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>29.23691464620135</v>
+        <v>20.40741051587826</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>29.2369146837029</v>
+        <v>46.4868112075026</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>29.23691469516915</v>
+        <v>54.11441917527628</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>29.23691466233787</v>
+        <v>12.79944834715327</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>29.2369146861604</v>
+        <v>43.90986667371716</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>29.23691469338281</v>
+        <v>51.40534362986481</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>29.23691467142617</v>
+        <v>14.28587652014854</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>29.23691469776297</v>
+        <v>37.50336577160988</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>29.23691470574764</v>
+        <v>45.58270129643842</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>29.23691468040832</v>
+        <v>30.82818048029293</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>29.23691470345802</v>
+        <v>49.80792530892186</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>29.23691471044613</v>
+        <v>55.88707532533205</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.2369146977731</v>
+        <v>57.14885907377516</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>29.2369147233748</v>
+        <v>67.81528932012561</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>29.23691473086307</v>
+        <v>73.29075875031586</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>29.236914689882</v>
+        <v>31.86408686648603</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>29.23691472613446</v>
+        <v>59.97164577980141</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>29.23691473712532</v>
+        <v>68.49885944666562</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.23691467000783</v>
+        <v>46.67841890350754</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>29.23691465728816</v>
+        <v>45.76971051909626</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>29.23691468367056</v>
+        <v>55.74961148846505</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>29.23691469147565</v>
+        <v>60.67416301158927</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>29.23691465043926</v>
+        <v>21.96453239312343</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>29.23691468778309</v>
+        <v>48.46240907713646</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>29.23691469915383</v>
+        <v>56.17913474544329</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>29.23691466614145</v>
+        <v>14.26948239215228</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>29.23691468986498</v>
+        <v>45.69488163088255</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>29.23691469702572</v>
+        <v>53.24857957430715</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>29.23691467553407</v>
+        <v>16.56834460147128</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>29.23691470176141</v>
+        <v>40.14923574636895</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>29.23691470967791</v>
+        <v>48.27979032558616</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>29.23691468450119</v>
+        <v>33.09978137109545</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>29.2369147074551</v>
+        <v>52.40488939985835</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>29.23691471438354</v>
+        <v>58.53305145539247</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>29.23691470173386</v>
+        <v>59.90914988511172</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>29.23691472720853</v>
+        <v>70.64172702596842</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>29.23691473463528</v>
+        <v>76.17377264079765</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>29.23691469373934</v>
+        <v>34.37934835137266</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>29.23691472984114</v>
+        <v>62.90462853602803</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>29.23691474073815</v>
+        <v>71.49311807654493</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>29.23691464757451</v>
+        <v>38.96639830466822</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>29.23691463489003</v>
+        <v>36.49884893503984</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>29.23691466127719</v>
+        <v>46.1796248672288</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>29.23691466928195</v>
+        <v>51.45224202506601</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.2369146287446</v>
+        <v>13.5781870535496</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>29.23691466596158</v>
+        <v>38.86865006875435</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>29.23691467764048</v>
+        <v>47.1135899836295</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>29.23691464629349</v>
+        <v>8.110114907476282</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>29.23691466993798</v>
+        <v>38.4140167891665</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>29.23691467729799</v>
+        <v>46.45915776347648</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>29.23691465426285</v>
+        <v>9.009446023278</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.23691468040282</v>
+        <v>31.55440580560424</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>29.23691468853961</v>
+        <v>40.20049596346409</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.23691466303303</v>
+        <v>24.7994622893691</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.23691468591047</v>
+        <v>43.18821299482236</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>29.23691469303171</v>
+        <v>49.76292754335712</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.23691468042015</v>
+        <v>49.53208937515275</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>29.23691470590053</v>
+        <v>59.98522272635201</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>29.23691471352379</v>
+        <v>65.88627094645474</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>29.23691467308871</v>
+        <v>24.8673655565818</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>29.23691470907023</v>
+        <v>52.17021090211726</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>29.23691472027048</v>
+        <v>61.36070443875712</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>29.23691456150705</v>
+        <v>-6.249583704303433</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>29.23691458406425</v>
+        <v>18.66919010719756</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>29.23691459121248</v>
+        <v>23.42506176811172</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>29.23691456616092</v>
+        <v>-5.100566012178103</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>29.23691459109885</v>
+        <v>11.34475602851311</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>29.23691459900151</v>
+        <v>17.0005505323178</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>29.23691457317317</v>
+        <v>6.116611424956087</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>29.23691459499859</v>
+        <v>19.49242958740046</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>29.23691460191493</v>
+        <v>23.54550518217136</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>29.23691459077782</v>
+        <v>21.53332496561215</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>29.23691461503303</v>
+        <v>28.74169799775532</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.23691462250673</v>
+        <v>32.12292016228026</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>29.23691458638242</v>
+        <v>1.059392640452295</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>29.23691462070933</v>
+        <v>21.28683013882714</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.23691463158731</v>
+        <v>27.0929197615364</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>29.23691459535042</v>
+        <v>-9.372896241152311</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>29.23691461934438</v>
+        <v>17.97484874716325</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>29.23691462694064</v>
+        <v>24.751660607573</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>29.23691460104889</v>
+        <v>-11.44490881795099</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>29.23691462757521</v>
+        <v>7.67303160512288</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.2369146359732</v>
+        <v>15.18495932617707</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>29.2369146092502</v>
+        <v>1.766256061599126</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.23691463246577</v>
+        <v>17.19641589318642</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>29.23691458201248</v>
+        <v>0.7015813564257947</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.23691460502511</v>
+        <v>27.54016126237538</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>29.23691461208615</v>
+        <v>32.07976343510116</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>29.23691458831953</v>
+        <v>4.103163406886061</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>29.23691461376094</v>
+        <v>22.308156348546</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.23691462156721</v>
+        <v>27.72941409368962</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>29.23691459567129</v>
+        <v>16.12342693459912</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.23691461793736</v>
+        <v>31.03313874461305</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.23691462476933</v>
+        <v>34.87460888168565</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>29.23691461342501</v>
+        <v>34.45523856617605</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.23691463807694</v>
+        <v>42.23465798192157</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>29.23691464547261</v>
+        <v>45.47782107932089</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>29.23691460822067</v>
+        <v>12.45481596947783</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>29.23691464324063</v>
+        <v>34.76165529537714</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>29.23691465398592</v>
+        <v>40.28343225685916</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>29.23691461753076</v>
+        <v>0.1668984818604038</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>29.2369146420069</v>
+        <v>29.62784486134995</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>29.23691464951182</v>
+        <v>36.26449804018631</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>29.23691462499422</v>
+        <v>0.6368547187589115</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>29.23691465205361</v>
+        <v>21.71364239702692</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.23691466035061</v>
+        <v>29.06555012154065</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>29.23691463356047</v>
+        <v>14.79339850055377</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>29.23691465724257</v>
+        <v>31.92149494978783</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.23691458614806</v>
+        <v>0.7954090669668723</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.23691460906496</v>
+        <v>27.92282704094689</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>29.23691461606659</v>
+        <v>32.5294121775628</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>29.23691459276836</v>
+        <v>4.869050899001987</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>29.23691461810394</v>
+        <v>23.41589865381067</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.23691462584453</v>
+        <v>28.89487462466391</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>29.23691460011426</v>
+        <v>16.86765959462886</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>29.23691462228771</v>
+        <v>32.08209642300421</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.23691462906219</v>
+        <v>35.97794009543517</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.23691461774208</v>
+        <v>35.74557066817907</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>29.23691464227264</v>
+        <v>43.60929903640613</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>29.23691464960891</v>
+        <v>46.91035532798489</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>29.23691461242295</v>
+        <v>13.49579789379241</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>29.23691464729724</v>
+        <v>36.19649600562256</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>29.23691465795211</v>
+        <v>41.78684737330259</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>29.23691462167601</v>
+        <v>0.7002346921846687</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>29.23691464604926</v>
+        <v>30.47656581511611</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>29.23691465349173</v>
+        <v>37.19935064092878</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>29.23691462946303</v>
+        <v>1.91536003066701</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.23691465640867</v>
+        <v>23.36055488243452</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>29.23691466463664</v>
+        <v>30.79096284124616</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>29.23691463801813</v>
+        <v>16.05581814311988</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.23691466160068</v>
+        <v>33.51230303100144</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>29.23691456644918</v>
+        <v>-2.633415207277761</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>29.23691458928708</v>
+        <v>23.49567114773669</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>29.23691459647874</v>
+        <v>28.55329013770192</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>29.2369145716747</v>
+        <v>0.5022548441310519</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>29.23691459692294</v>
+        <v>18.13090580318613</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.23691460487362</v>
+        <v>24.07931725184657</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>29.23691457881503</v>
+        <v>11.825271059342</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>29.23691460091204</v>
+        <v>26.22776055891673</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>29.23691460787039</v>
+        <v>30.53232288526715</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>29.23691459656239</v>
+        <v>28.72216193474585</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>29.23691462109196</v>
+        <v>36.28988842352365</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>29.23691462861494</v>
+        <v>39.91984644031834</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.23691459190687</v>
+        <v>7.251279364272682</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>29.23691462666093</v>
+        <v>28.86306150250847</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>29.236914637605</v>
+        <v>35.00265583470005</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>29.23691460096151</v>
+        <v>-4.520334300200794</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>29.23691462525261</v>
+        <v>24.15374936770394</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>29.23691463289619</v>
+        <v>31.30839169486665</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>29.23691460726882</v>
+        <v>-4.498885865634644</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>29.23691463412364</v>
+        <v>15.92552384350194</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>29.23691464257394</v>
+        <v>23.80886218591563</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>29.23691461561267</v>
+        <v>8.873955396318539</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.23691463911574</v>
+        <v>25.43346878303754</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>29.23691463981559</v>
+        <v>22.77985266950033</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>29.23691462752106</v>
+        <v>20.54720290015041</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>29.23691465342124</v>
+        <v>29.62707253279573</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>29.23691466134084</v>
+        <v>34.53035944941659</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.2369146217872</v>
+        <v>-0.9048341269674722</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.23691465830054</v>
+        <v>22.53448282347545</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>29.23691466986032</v>
+        <v>30.38399107017199</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>29.23691463946524</v>
+        <v>-4.327460451213444</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.2369146626667</v>
+        <v>24.44960583864383</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>29.23691466994443</v>
+        <v>32.11950509063409</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>29.23691464684454</v>
+        <v>-5.948631092050086</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.23691467249472</v>
+        <v>14.99173282577028</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>29.23691468054055</v>
+        <v>23.31677275911578</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>29.23691465540624</v>
+        <v>9.511731655662871</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>29.23691467785502</v>
+        <v>26.51997939204661</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>29.23691468489665</v>
+        <v>32.81103717247306</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>29.23691467266404</v>
+        <v>32.73714962077142</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.23691469767578</v>
+        <v>42.60585585242845</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>29.23691470521102</v>
+        <v>48.1442121434917</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.23691466574024</v>
+        <v>9.517793624844803</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>29.23691470104757</v>
+        <v>34.99090839257663</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>29.23691471212261</v>
+        <v>43.80522400177479</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>29.23691466450403</v>
+        <v>37.35866406349878</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>29.2369146519603</v>
+        <v>36.60148151555359</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>29.23691467827688</v>
+        <v>46.28587207553234</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>29.23691468611366</v>
+        <v>51.07294670315739</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>29.23691464535751</v>
+        <v>13.53148886791239</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>29.2369146826046</v>
+        <v>39.27696562865431</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>29.23691469402539</v>
+        <v>46.92302842343372</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>29.2369146613086</v>
+        <v>7.629879452284897</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>29.23691468497512</v>
+        <v>38.56587000106113</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>29.23691469215961</v>
+        <v>46.02219751106854</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>29.23691467040947</v>
+        <v>8.824406903433673</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>29.23691469657379</v>
+        <v>31.76586221197616</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>29.23691470451655</v>
+        <v>39.8561312854446</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>29.23691467932624</v>
+        <v>25.27856965564423</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>29.23691470222499</v>
+        <v>44.02862177611974</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>29.23691470917641</v>
+        <v>50.10834806285232</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>29.23691469669183</v>
+        <v>51.5831299125952</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>29.23691472210484</v>
+        <v>62.04343002523115</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>29.23691472955419</v>
+        <v>67.44944907638748</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>29.23691468892194</v>
+        <v>26.70108687051599</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>29.23691472493698</v>
+        <v>54.52840594654865</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>29.23691473587014</v>
+        <v>63.05732544286846</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>29.23691466880172</v>
+        <v>39.02193916985003</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>29.23691465628193</v>
+        <v>38.3822551693686</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>29.23691468246693</v>
+        <v>48.14418279215135</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.23691469024132</v>
+        <v>52.99899224723487</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>29.23691464956502</v>
+        <v>15.07909886964478</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>29.23691468665554</v>
+        <v>41.24775498700332</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.23691469798129</v>
+        <v>48.98555694993858</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>29.23691466508651</v>
+        <v>9.087066446928942</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>29.23691468865474</v>
+        <v>40.34210743604856</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>29.23691469577789</v>
+        <v>47.85865212799816</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.23691467448923</v>
+        <v>11.09970171250841</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>29.2369147005449</v>
+        <v>34.40913921800937</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>29.23691470841984</v>
+        <v>42.55274065071404</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.23691468339114</v>
+        <v>27.54363482835784</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>29.2369147061948</v>
+        <v>46.62304078750311</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.23691471308686</v>
+        <v>52.75356597506163</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>29.2369147006252</v>
+        <v>54.34399368922562</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>29.23691472591229</v>
+        <v>64.87330173874417</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>29.23691473330046</v>
+        <v>70.33747473176707</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>29.23691469275226</v>
+        <v>29.21484125747118</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>29.23691472861774</v>
+        <v>57.46512903232041</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>29.23691473945755</v>
+        <v>66.05777032571065</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.23691464651135</v>
+        <v>31.33465743295352</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>29.23691463402317</v>
+        <v>29.11271269816074</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>29.23691466021339</v>
+        <v>38.57469747746836</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>29.2369146681861</v>
+        <v>43.77988640738529</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>29.23691462800454</v>
+        <v>6.685996545243148</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.23691466497006</v>
+        <v>31.64971711140064</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>29.23691467660185</v>
+        <v>39.91973601273149</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>29.23691464536225</v>
+        <v>2.929464107357333</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>29.23691466885269</v>
+        <v>33.06455283714493</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>29.2369146761737</v>
+        <v>41.07617664786638</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.23691465334889</v>
+        <v>3.540332085720042</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.23691467931855</v>
+        <v>25.81627488823203</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>29.23691468741223</v>
+        <v>34.47811243231511</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.23691466205479</v>
+        <v>19.2372751612891</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>29.23691468478318</v>
+        <v>37.40277238565417</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>29.23691469186669</v>
+        <v>43.9821391285208</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.23691467943971</v>
+        <v>43.94294591273714</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>29.23691470473304</v>
+        <v>54.19241314800812</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.23691471231634</v>
+        <v>60.02736168554732</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>29.23691467222505</v>
+        <v>19.67008962675541</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>29.23691470797214</v>
+        <v>46.70086714978836</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.23691471911305</v>
+        <v>55.89869433112413</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.23691456823145</v>
+        <v>2.433246129051046</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>29.23691459164392</v>
+        <v>28.18111295309305</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>29.23691459919661</v>
+        <v>33.87813912724209</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>29.23691457369038</v>
+        <v>4.713451114069048</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>29.23691459957384</v>
+        <v>21.56391764255509</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.23691460792365</v>
+        <v>28.21766888281972</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>29.2369145810853</v>
+        <v>16.15493863026577</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.23691460373825</v>
+        <v>29.79935630510935</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>29.23691461104592</v>
+        <v>34.70086797541893</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>29.23691459916332</v>
+        <v>32.17760228739884</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>29.23691462447611</v>
+        <v>39.84687405817999</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>29.23691463237955</v>
+        <v>43.92647165710299</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>29.23691459430274</v>
+        <v>10.76583998088213</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>29.23691462993117</v>
+        <v>31.45493732018961</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>29.23691464142464</v>
+        <v>38.38435112384509</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>29.23691460646048</v>
+        <v>1.28496761418743</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>29.23691463139004</v>
+        <v>29.6779219696075</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>29.23691463942081</v>
+        <v>37.57578682140755</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>29.2369146131739</v>
+        <v>0.2804675124100946</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.23691464073455</v>
+        <v>20.02806946295947</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>29.23691464961291</v>
+        <v>28.70271996482526</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>29.23691462182482</v>
+        <v>13.86454134079713</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.23691464594562</v>
+        <v>29.7369806359525</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>29.23691459038526</v>
+        <v>11.16074671113374</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>29.23691461427028</v>
+        <v>38.9273654891613</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>29.23691462173524</v>
+        <v>44.43294909856377</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>29.2369145976005</v>
+        <v>15.94772948021741</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>29.23691462400637</v>
+        <v>34.65562426970442</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.23691463225919</v>
+        <v>41.09121897530422</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>29.2369146053739</v>
+        <v>28.22553625611438</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.23691462848406</v>
+        <v>43.48431432844697</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.23691463570685</v>
+        <v>48.19115413595435</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>29.23691462361449</v>
+        <v>47.31609187059175</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>29.23691464933859</v>
+        <v>55.57617410456002</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>29.23691465716271</v>
+        <v>59.52509276210681</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>29.2369146178872</v>
+        <v>24.26482087232933</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>29.23691465423474</v>
+        <v>47.14384064246552</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>29.2369146655947</v>
+        <v>53.80927299536448</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>29.23691463038207</v>
+        <v>12.68616663709858</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.23691465581127</v>
+        <v>43.30392907632743</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>29.23691466375036</v>
+        <v>51.09133824787274</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>29.23691463896804</v>
+        <v>14.48609106848413</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.23691466708107</v>
+        <v>36.30253794141282</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>29.23691467585807</v>
+        <v>44.83823885365975</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.23691464802466</v>
+        <v>29.05835385414044</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>29.23691467262891</v>
+        <v>46.71935008412687</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.23691459477791</v>
+        <v>11.69360093821194</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>29.23691461856508</v>
+        <v>39.7719249847863</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>29.2369146259678</v>
+        <v>45.35170016400224</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>29.23691460232363</v>
+        <v>17.21313343835214</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>29.23691462862133</v>
+        <v>36.29092088513864</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>29.23691463680534</v>
+        <v>42.7883351486676</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>29.23691461009467</v>
+        <v>29.47885141367918</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>29.23691463311015</v>
+        <v>45.0654879933082</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>29.23691464027271</v>
+        <v>49.83145570859247</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>29.23691462820534</v>
+        <v>49.13508518460387</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>29.23691465380375</v>
+        <v>57.48204170566369</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>29.2369146615655</v>
+        <v>61.4914963077771</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>29.23691462235466</v>
+        <v>25.81035355938538</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>29.23691465855331</v>
+        <v>49.11411757477872</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>29.23691466981855</v>
+        <v>55.8540527849634</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>29.23691463476374</v>
+        <v>13.67391369611611</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>29.23691466008738</v>
+        <v>44.63200660664606</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>29.23691466796095</v>
+        <v>52.51227386789745</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.23691464368967</v>
+        <v>16.28165922897075</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>29.236914671686</v>
+        <v>38.49653571601563</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.23691468039057</v>
+        <v>47.11414068855861</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>29.23691465273834</v>
+        <v>30.84838614636298</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>29.23691467724044</v>
+        <v>48.86268098668639</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>29.23691457369234</v>
+        <v>7.3901275271397</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>29.23691459739815</v>
+        <v>34.41692670700402</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>29.23691460499798</v>
+        <v>40.45434980371709</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>29.23691457976366</v>
+        <v>11.82303668497686</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>29.23691460597143</v>
+        <v>29.93092276034268</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.23691461437335</v>
+        <v>36.90916883920791</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.23691458729937</v>
+        <v>23.39924099490586</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>29.23691461023615</v>
+        <v>38.12956342778786</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>29.23691461758943</v>
+        <v>43.31315882222025</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>29.23691460552346</v>
+        <v>40.95625206148252</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>29.23691463112392</v>
+        <v>48.99836555074451</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>29.23691463908068</v>
+        <v>53.35106125215903</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.2369146003815</v>
+        <v>18.47151385282909</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>29.23691463645635</v>
+        <v>40.62579046585709</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>29.23691464802155</v>
+        <v>47.9283363000323</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>29.23691461264344</v>
+        <v>7.605938368630387</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>29.23691463788344</v>
+        <v>37.40421125861091</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>29.23691464596551</v>
+        <v>45.72046727437686</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.23691462000916</v>
+        <v>8.867128352678698</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>29.23691464791303</v>
+        <v>30.00583483151706</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.23691465684809</v>
+        <v>39.0848591244244</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>29.23691462881612</v>
+        <v>22.64724188434652</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>29.23691465323731</v>
+        <v>39.7172071319774</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>29.23691465371588</v>
+        <v>36.31628651632995</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>29.23691464057474</v>
+        <v>33.65184413198619</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>29.23691466763744</v>
+        <v>43.3972512093719</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>29.23691467602135</v>
+        <v>49.12133327885542</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>29.23691463424913</v>
+        <v>11.16195492039224</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>29.23691467218622</v>
+        <v>35.33205480299066</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>29.23691468440723</v>
+        <v>44.50253192027321</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>29.23691465272154</v>
+        <v>4.082359941977426</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>29.23691467684263</v>
+        <v>33.95752505927877</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>29.2369146845322</v>
+        <v>42.74061919426362</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.23691466113215</v>
+        <v>3.523727614355213</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>29.23691468779901</v>
+        <v>25.14982829023182</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>29.23691469630014</v>
+        <v>34.62870161736599</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>29.23691467013965</v>
+        <v>19.3650121808443</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>29.23691469347822</v>
+        <v>36.86577461726107</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>29.23691470091832</v>
+        <v>44.13879751996571</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>29.23691468777551</v>
+        <v>43.93814808831469</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>29.23691471392674</v>
+        <v>54.45475966926004</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>29.23691472189898</v>
+        <v>60.82975647108935</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>29.23691468018659</v>
+        <v>19.6570010466926</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.23691471689337</v>
+        <v>45.93735991754883</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.23691472859514</v>
+        <v>56.06827348402003</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>29.23691468031044</v>
+        <v>53.17359296042105</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>29.23691466691565</v>
+        <v>52.02420816582493</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.2369146944093</v>
+        <v>62.39613070096955</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.23691470270938</v>
+        <v>68.01180083275895</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>29.23691465966201</v>
+        <v>27.79950929682597</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.23691469835945</v>
+        <v>54.40054326286111</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>29.23691471044093</v>
+        <v>63.39273308827538</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>29.23691467626092</v>
+        <v>17.96617583805853</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>29.23691470086444</v>
+        <v>50.11994248770779</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.23691470846061</v>
+        <v>58.71436839116078</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>29.23691468649605</v>
+        <v>20.49416767906648</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>29.23691471369627</v>
+        <v>44.23786794054827</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>29.23691472209414</v>
+        <v>53.50006238129946</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>29.23691469589671</v>
+        <v>37.37665585601293</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.23691471970207</v>
+        <v>56.71635294162918</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>29.2369147270518</v>
+        <v>63.79605236071063</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>29.2369147136482</v>
+        <v>65.18665899794523</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>29.23691474021511</v>
+        <v>76.32242996688336</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>29.23691474810068</v>
+        <v>82.56956322843199</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>29.23691470515613</v>
+        <v>39.12292920312694</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>29.23691474259708</v>
+        <v>67.89081696498458</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>29.2369147541567</v>
+        <v>77.75786359269549</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.23691468485859</v>
+        <v>55.39366460065635</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>29.23691467148884</v>
+        <v>54.34586147380062</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>29.23691469884574</v>
+        <v>64.79699907344163</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.23691470708022</v>
+        <v>70.48257127564084</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.23691466411331</v>
+        <v>29.86346461113224</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>29.2369147026501</v>
+        <v>56.92072296784765</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>29.23691471463189</v>
+        <v>66.00969662495608</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.23691468024918</v>
+        <v>19.92689223927002</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.2369147047517</v>
+        <v>52.42450568904367</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.23691471228369</v>
+        <v>61.08611116450375</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.23691469080157</v>
+        <v>23.33714514757087</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>29.23691471789012</v>
+        <v>47.47825883720445</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>29.23691472621705</v>
+        <v>56.79786955834453</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>29.23691470019006</v>
+        <v>40.22132561706609</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>29.23691472389768</v>
+        <v>59.91498216675582</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>29.23691473118533</v>
+        <v>67.05025874872625</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>29.23691471780564</v>
+        <v>68.53715451123897</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>29.23691474424147</v>
+        <v>79.74401005667022</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.23691475206289</v>
+        <v>86.05167075200586</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>29.23691470920364</v>
+        <v>42.19977138264153</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.23691474649089</v>
+        <v>71.42310852636986</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>29.23691475795285</v>
+        <v>81.35961797159564</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>29.23691466105718</v>
+        <v>46.64616828458189</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>29.23691464770852</v>
+        <v>43.93742938460107</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>29.23691467507519</v>
+        <v>54.08068636529465</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>29.2369146835166</v>
+        <v>60.13249630132805</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>29.23691464107572</v>
+        <v>20.39295399259986</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>29.23691467948525</v>
+        <v>46.18032486149574</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>29.23691469178431</v>
+        <v>55.81220365612327</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>29.23691465919268</v>
+        <v>12.8572040171573</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.23691468361567</v>
+        <v>44.16800850014181</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>29.2369146913524</v>
+        <v>53.33489550851998</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>29.23691466825294</v>
+        <v>14.70303673408793</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>29.23691469525357</v>
+        <v>37.74706014510463</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.23691470380685</v>
+        <v>47.59830976338547</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>29.23691467741738</v>
+        <v>30.81842872749659</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>29.23691470104806</v>
+        <v>49.54306222724814</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.2369147085338</v>
+        <v>57.13822263675731</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.23691469518139</v>
+        <v>56.91446678170553</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.23691472162768</v>
+        <v>67.82692976563982</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>29.23691472965219</v>
+        <v>74.52705785093893</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>29.23691468727908</v>
+        <v>31.49476717394624</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>29.2369147244453</v>
+        <v>59.42343415051545</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>29.23691473621884</v>
+        <v>69.98164220811475</v>
       </c>
     </row>
   </sheetData>
